--- a/Resources/db_farmanet_escenarios_Andreani.xlsx
+++ b/Resources/db_farmanet_escenarios_Andreani.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alflopez-ext\Documents\Automation\Proyectos_Katalon\git\katalonProjects\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FD1004-6B94-4AAB-86FE-9B25F043A516}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD505D9-A5D6-4EBD-8BF7-1DBB05242413}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{DCE7E561-B195-4D45-B807-475C6552309D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="404">
   <si>
     <t>filtrar</t>
   </si>
@@ -215,103 +215,1036 @@
     <t>egreso_125</t>
   </si>
   <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>16.03.2020</t>
-  </si>
-  <si>
-    <t>14:48</t>
-  </si>
-  <si>
-    <t>LOTE2729</t>
-  </si>
-  <si>
-    <t>20200316</t>
-  </si>
-  <si>
-    <t>20211106</t>
-  </si>
-  <si>
-    <t>2729</t>
-  </si>
-  <si>
-    <t>0000R00002729</t>
+    <t>strPedWeb089</t>
+  </si>
+  <si>
+    <t>strPedWeb101</t>
+  </si>
+  <si>
+    <t>strPedWeb106</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>27.03.2020</t>
+  </si>
+  <si>
+    <t>16:55</t>
+  </si>
+  <si>
+    <t>LOTE2943</t>
+  </si>
+  <si>
+    <t>20200327</t>
+  </si>
+  <si>
+    <t>20211117</t>
+  </si>
+  <si>
+    <t>2943</t>
+  </si>
+  <si>
+    <t>0000R00002943</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>20200116</t>
-  </si>
-  <si>
-    <t>3423829</t>
-  </si>
-  <si>
-    <t>9181;LOTE2729;20211106;DESC LOTE2729;LOTE2729;N;LOTE2729;;AR;;;;;;N;;;210;20181103;;N;</t>
-  </si>
-  <si>
-    <t>02000000002729;FNET;FNET;02;ZRET;20200316;;1800000122;20200316;08:00;16:00;20000;Remito electrónico Test;;;9181;66;C/U;LOTE2729;;;;;0000-00002729;2729;20200316;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEDIDO            20200316002C001CLIENTESAPNROOC032202003169181              22           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">202003160002073900PEDIDO                                                                          9181              22       139                         02        03      NUMEROWE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VTD9181  133198CLIENTESAPC00120200316NROOC1  22     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    9181              22     816 0  011   </t>
+    <t>20200127</t>
+  </si>
+  <si>
+    <t>3426076</t>
+  </si>
+  <si>
+    <t>9181;LOTE2943;20211117;DESC LOTE2943;LOTE2943;N;LOTE2943;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000002943;FNET;FNET;02;ZRET;20200327;;1800000122;20200327;08:00;16:00;20000;Remito electrónico Test;;;9181;66;C/U;LOTE2943;;;;;0000-00002943;2943;20200327;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200327002C001CLIENTESAPNROOC032202003279181              22           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202003270002073900PEDIDO                                                                          9181              22       139                         02        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD9181  133198CLIENTESAPC00120200327NROOC1  22     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    9181              22     816 0  011   </t>
   </si>
   <si>
     <t>NO</t>
   </si>
   <si>
-    <t xml:space="preserve">3423839 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3423849 </t>
-  </si>
-  <si>
-    <t>strPedWeb089</t>
-  </si>
-  <si>
-    <t>strPedWeb101</t>
-  </si>
-  <si>
-    <t>strPedWeb106</t>
+    <t xml:space="preserve">3426086 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3426096 </t>
+  </si>
+  <si>
+    <t>0001131506</t>
+  </si>
+  <si>
+    <t>0001131505</t>
+  </si>
+  <si>
+    <t>0001131504</t>
+  </si>
+  <si>
+    <t>02000000002943</t>
+  </si>
+  <si>
+    <t>4000007184</t>
+  </si>
+  <si>
+    <t>17:25</t>
+  </si>
+  <si>
+    <t>LOTE2945</t>
+  </si>
+  <si>
+    <t>2945</t>
+  </si>
+  <si>
+    <t>0000R00002945</t>
+  </si>
+  <si>
+    <t>3426097</t>
+  </si>
+  <si>
+    <t>9181;LOTE2945;20211117;DESC LOTE2945;LOTE2945;N;LOTE2945;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000002945;FNET;FNET;02;ZRET;20200327;;1800000122;20200327;08:00;16:00;20000;Remito electrónico Test;;;9181;66;C/U;LOTE2945;;;;;0000-00002945;2945;20200327;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3426107 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3426117 </t>
+  </si>
+  <si>
+    <t>LOTE2949</t>
+  </si>
+  <si>
+    <t>2949</t>
+  </si>
+  <si>
+    <t>0000R00002949</t>
+  </si>
+  <si>
+    <t>3426139</t>
+  </si>
+  <si>
+    <t>9181;LOTE2949;20211117;DESC LOTE2949;LOTE2949;N;LOTE2949;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000002949;FNET;FNET;02;ZRET;20200327;;1800000122;20200327;08:00;16:00;20000;Remito electrónico Test;;;9181;66;C/U;LOTE2949;;;;;0000-00002949;2949;20200327;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3426149 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3426159 </t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>0001</t>
-  </si>
-  <si>
-    <t>0001131181</t>
-  </si>
-  <si>
-    <t>0001131180</t>
-  </si>
-  <si>
-    <t>0001131179</t>
-  </si>
-  <si>
-    <t>0200000000</t>
-  </si>
-  <si>
-    <t>0600000000</t>
-  </si>
-  <si>
-    <t>02000000002729</t>
-  </si>
-  <si>
-    <t>4000007076</t>
-  </si>
-  <si>
-    <t>80872075</t>
-  </si>
-  <si>
-    <t>80872076</t>
+    <t>18:12</t>
+  </si>
+  <si>
+    <t>LOTE2961</t>
+  </si>
+  <si>
+    <t>2961</t>
+  </si>
+  <si>
+    <t>0000R00002961</t>
+  </si>
+  <si>
+    <t>3426265</t>
+  </si>
+  <si>
+    <t>1572;LOTE2961;20211117;DESC LOTE2961;LOTE2961;N;LOTE2961;;AR;;;;;;S;1;S;210;20181103;F;N;</t>
+  </si>
+  <si>
+    <t>05000000002961;FNET;FNET;05;ZRET;20200327;;1800000042;20200327;08:00;16:00;20000;Remito electrónico Test;;;1572;60;C/U;LOTE2961;;;;;0000-00002961;2961;20200327;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200327002C001CLIENTESAPNROOC032202003271572              20           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202003270002073900PEDIDO                                                                          1572              20       139                         05        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD1572  133198CLIENTESAPC00120200327NROOC1  20     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1572              20     816 0  011   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3426275 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3426285 </t>
+  </si>
+  <si>
+    <t>LOTE2965</t>
+  </si>
+  <si>
+    <t>2965</t>
+  </si>
+  <si>
+    <t>0000R00002965</t>
+  </si>
+  <si>
+    <t>3426307</t>
+  </si>
+  <si>
+    <t>1572;LOTE2965;20211117;DESC LOTE2965;LOTE2965;N;LOTE2965;;AR;;;;;;S;1;S;210;20181103;F;N;</t>
+  </si>
+  <si>
+    <t>05000000002965;FNET;FNET;05;ZRET;20200327;;1800000042;20200327;08:00;16:00;20000;Remito electrónico Test;;;1572;60;C/U;LOTE2965;;;;;0000-00002965;2965;20200327;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3426317 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3426327 </t>
+  </si>
+  <si>
+    <t>18:13</t>
+  </si>
+  <si>
+    <t>LOTE2969</t>
+  </si>
+  <si>
+    <t>2969</t>
+  </si>
+  <si>
+    <t>0000R00002969</t>
+  </si>
+  <si>
+    <t>3426349</t>
+  </si>
+  <si>
+    <t>1572;LOTE2969;20211117;DESC LOTE2969;LOTE2969;N;LOTE2969;;AR;;;;;;S;1;S;210;20181103;F;N;</t>
+  </si>
+  <si>
+    <t>05000000002969;FNET;FNET;05;ZRET;20200327;;1800000042;20200327;08:00;16:00;20000;Remito electrónico Test;;;1572;60;C/U;LOTE2969;;;;;0000-00002969;2969;20200327;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3426359 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3426369 </t>
+  </si>
+  <si>
+    <t>0001131533</t>
+  </si>
+  <si>
+    <t>0001131531</t>
+  </si>
+  <si>
+    <t>0001131532</t>
+  </si>
+  <si>
+    <t>0001131536</t>
+  </si>
+  <si>
+    <t>0001131546</t>
+  </si>
+  <si>
+    <t>0001131539</t>
+  </si>
+  <si>
+    <t>0001131541</t>
+  </si>
+  <si>
+    <t>0001131547</t>
+  </si>
+  <si>
+    <t>0001131538</t>
+  </si>
+  <si>
+    <t>0001131507</t>
+  </si>
+  <si>
+    <t>0001131509</t>
+  </si>
+  <si>
+    <t>0001131508</t>
+  </si>
+  <si>
+    <t>0001131515</t>
+  </si>
+  <si>
+    <t>0001131511</t>
+  </si>
+  <si>
+    <t>0001131514</t>
+  </si>
+  <si>
+    <t>05000000002961</t>
+  </si>
+  <si>
+    <t>4000007193</t>
+  </si>
+  <si>
+    <t>05000000002965</t>
+  </si>
+  <si>
+    <t>4000007194</t>
+  </si>
+  <si>
+    <t>05000000002969</t>
+  </si>
+  <si>
+    <t>4000007196</t>
+  </si>
+  <si>
+    <t>02000000002945</t>
+  </si>
+  <si>
+    <t>4000007188</t>
+  </si>
+  <si>
+    <t>02000000002949</t>
+  </si>
+  <si>
+    <t>4000007190</t>
+  </si>
+  <si>
+    <t>28.03.2020</t>
+  </si>
+  <si>
+    <t>04:44</t>
+  </si>
+  <si>
+    <t>LOTE2973</t>
+  </si>
+  <si>
+    <t>20200328</t>
+  </si>
+  <si>
+    <t>20211118</t>
+  </si>
+  <si>
+    <t>2973</t>
+  </si>
+  <si>
+    <t>0000R00002973</t>
+  </si>
+  <si>
+    <t>20200128</t>
+  </si>
+  <si>
+    <t>3426391</t>
+  </si>
+  <si>
+    <t>1572;LOTE2973;20211118;DESC LOTE2973;LOTE2973;N;LOTE2973;;AR;;;;;;S;1;S;210;20181103;F;N;</t>
+  </si>
+  <si>
+    <t>05000000002973;FNET;FNET;05;ZRET;20200328;;1800000042;20200328;08:00;16:00;20000;Remito electrónico Test;;;1572;60;C/U;LOTE2973;;;;;0000-00002973;2973;20200328;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200328002C001CLIENTESAPNROOC032202003281572              20           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202003280002073900PEDIDO                                                                          1572              20       139                         05        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD1572  133198CLIENTESAPC00120200328NROOC1  20     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1572              20     816 0  011   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3426401 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3426411 </t>
+  </si>
+  <si>
+    <t>LOTE2977</t>
+  </si>
+  <si>
+    <t>2977</t>
+  </si>
+  <si>
+    <t>0000R00002977</t>
+  </si>
+  <si>
+    <t>3426433</t>
+  </si>
+  <si>
+    <t>1572;LOTE2977;20211118;DESC LOTE2977;LOTE2977;N;LOTE2977;;AR;;;;;;S;1;S;210;20181103;F;N;</t>
+  </si>
+  <si>
+    <t>05000000002977;FNET;FNET;05;ZRET;20200328;;1800000042;20200328;08:00;16:00;20000;Remito electrónico Test;;;1572;60;C/U;LOTE2977;;;;;0000-00002977;2977;20200328;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3426443 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3426453 </t>
+  </si>
+  <si>
+    <t>LOTE2981</t>
+  </si>
+  <si>
+    <t>2981</t>
+  </si>
+  <si>
+    <t>0000R00002981</t>
+  </si>
+  <si>
+    <t>3426475</t>
+  </si>
+  <si>
+    <t>1572;LOTE2981;20211118;DESC LOTE2981;LOTE2981;N;LOTE2981;;AR;;;;;;S;1;S;210;20181103;F;N;</t>
+  </si>
+  <si>
+    <t>05000000002981;FNET;FNET;05;ZRET;20200328;;1800000042;20200328;08:00;16:00;20000;Remito electrónico Test;;;1572;60;C/U;LOTE2981;;;;;0000-00002981;2981;20200328;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3426485 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3426495 </t>
+  </si>
+  <si>
+    <t>LOTE2985</t>
+  </si>
+  <si>
+    <t>2985</t>
+  </si>
+  <si>
+    <t>0000R00002985</t>
+  </si>
+  <si>
+    <t>3426517</t>
+  </si>
+  <si>
+    <t>9181;LOTE2985;20211118;DESC LOTE2985;LOTE2985;N;LOTE2985;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000002985;FNET;FNET;02;ZRET;20200328;;1800000122;20200328;08:00;16:00;20000;Remito electrónico Test;;;9181;66;C/U;LOTE2985;;;;;0000-00002985;2985;20200328;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200328002C001CLIENTESAPNROOC032202003289181              22           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202003280002073900PEDIDO                                                                          9181              22       139                         02        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD9181  133198CLIENTESAPC00120200328NROOC1  22     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    9181              22     816 0  011   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3426527 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3426537 </t>
+  </si>
+  <si>
+    <t>LOTE2989</t>
+  </si>
+  <si>
+    <t>2989</t>
+  </si>
+  <si>
+    <t>0000R00002989</t>
+  </si>
+  <si>
+    <t>3426559</t>
+  </si>
+  <si>
+    <t>9181;LOTE2989;20211118;DESC LOTE2989;LOTE2989;N;LOTE2989;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000002989;FNET;FNET;02;ZRET;20200328;;1800000122;20200328;08:00;16:00;20000;Remito electrónico Test;;;9181;66;C/U;LOTE2989;;;;;0000-00002989;2989;20200328;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3426569 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3426579 </t>
+  </si>
+  <si>
+    <t>04:45</t>
+  </si>
+  <si>
+    <t>LOTE2993</t>
+  </si>
+  <si>
+    <t>2993</t>
+  </si>
+  <si>
+    <t>0000R00002993</t>
+  </si>
+  <si>
+    <t>3426601</t>
+  </si>
+  <si>
+    <t>9181;LOTE2993;20211118;DESC LOTE2993;LOTE2993;N;LOTE2993;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000002993;FNET;FNET;02;ZRET;20200328;;1800000122;20200328;08:00;16:00;20000;Remito electrónico Test;;;9181;66;C/U;LOTE2993;;;;;0000-00002993;2993;20200328;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3426611 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3426621 </t>
+  </si>
+  <si>
+    <t>0001131554</t>
+  </si>
+  <si>
+    <t>0001131553</t>
+  </si>
+  <si>
+    <t>0001131551</t>
+  </si>
+  <si>
+    <t>0001131572</t>
+  </si>
+  <si>
+    <t>0001131559</t>
+  </si>
+  <si>
+    <t>0001131556</t>
+  </si>
+  <si>
+    <t>0001131577</t>
+  </si>
+  <si>
+    <t>0001131561</t>
+  </si>
+  <si>
+    <t>0001131560</t>
+  </si>
+  <si>
+    <t>0001131578</t>
+  </si>
+  <si>
+    <t>0001131563</t>
+  </si>
+  <si>
+    <t>0001131566</t>
+  </si>
+  <si>
+    <t>0001131583</t>
+  </si>
+  <si>
+    <t>0001131568</t>
+  </si>
+  <si>
+    <t>0001131573</t>
+  </si>
+  <si>
+    <t>29.03.2020</t>
+  </si>
+  <si>
+    <t>LOTE3005</t>
+  </si>
+  <si>
+    <t>20200329</t>
+  </si>
+  <si>
+    <t>20211119</t>
+  </si>
+  <si>
+    <t>3005</t>
+  </si>
+  <si>
+    <t>0000R00003005</t>
+  </si>
+  <si>
+    <t>20200129</t>
+  </si>
+  <si>
+    <t>3426727</t>
+  </si>
+  <si>
+    <t>1572;LOTE3005;20211119;DESC LOTE3005;LOTE3005;N;LOTE3005;;AR;;;;;;S;1;S;210;20181103;F;N;</t>
+  </si>
+  <si>
+    <t>05000000003005;FNET;FNET;05;ZRET;20200329;;1800000042;20200329;08:00;16:00;20000;Remito electrónico Test;;;1572;60;C/U;LOTE3005;;;;;0000-00003005;3005;20200329;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200329002C001CLIENTESAPNROOC032202003291572              20           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202003290002073900PEDIDO                                                                          1572              20       139                         05        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD1572  133198CLIENTESAPC00120200329NROOC1  20     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1572              20     816 0  011   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3426737 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3426747 </t>
+  </si>
+  <si>
+    <t>LOTE3009</t>
+  </si>
+  <si>
+    <t>3009</t>
+  </si>
+  <si>
+    <t>0000R00003009</t>
+  </si>
+  <si>
+    <t>3426769</t>
+  </si>
+  <si>
+    <t>1572;LOTE3009;20211119;DESC LOTE3009;LOTE3009;N;LOTE3009;;AR;;;;;;S;1;S;210;20181103;F;N;</t>
+  </si>
+  <si>
+    <t>05000000003009;FNET;FNET;05;ZRET;20200329;;1800000042;20200329;08:00;16:00;20000;Remito electrónico Test;;;1572;60;C/U;LOTE3009;;;;;0000-00003009;3009;20200329;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3426779 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3426789 </t>
+  </si>
+  <si>
+    <t>LOTE3013</t>
+  </si>
+  <si>
+    <t>3013</t>
+  </si>
+  <si>
+    <t>0000R00003013</t>
+  </si>
+  <si>
+    <t>3426811</t>
+  </si>
+  <si>
+    <t>1572;LOTE3013;20211119;DESC LOTE3013;LOTE3013;N;LOTE3013;;AR;;;;;;S;1;S;210;20181103;F;N;</t>
+  </si>
+  <si>
+    <t>05000000003013;FNET;FNET;05;ZRET;20200329;;1800000042;20200329;08:00;16:00;20000;Remito electrónico Test;;;1572;60;C/U;LOTE3013;;;;;0000-00003013;3013;20200329;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3426821 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3426831 </t>
+  </si>
+  <si>
+    <t>LOTE3017</t>
+  </si>
+  <si>
+    <t>3017</t>
+  </si>
+  <si>
+    <t>0000R00003017</t>
+  </si>
+  <si>
+    <t>3426853</t>
+  </si>
+  <si>
+    <t>9181;LOTE3017;20211119;DESC LOTE3017;LOTE3017;N;LOTE3017;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000003017;FNET;FNET;02;ZRET;20200329;;1800000122;20200329;08:00;16:00;20000;Remito electrónico Test;;;9181;66;C/U;LOTE3017;;;;;0000-00003017;3017;20200329;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200329002C001CLIENTESAPNROOC032202003299181              22           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202003290002073900PEDIDO                                                                          9181              22       139                         02        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD9181  133198CLIENTESAPC00120200329NROOC1  22     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    9181              22     816 0  011   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3426863 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3426873 </t>
+  </si>
+  <si>
+    <t>LOTE3021</t>
+  </si>
+  <si>
+    <t>3021</t>
+  </si>
+  <si>
+    <t>0000R00003021</t>
+  </si>
+  <si>
+    <t>3426895</t>
+  </si>
+  <si>
+    <t>9181;LOTE3021;20211119;DESC LOTE3021;LOTE3021;N;LOTE3021;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000003021;FNET;FNET;02;ZRET;20200329;;1800000122;20200329;08:00;16:00;20000;Remito electrónico Test;;;9181;66;C/U;LOTE3021;;;;;0000-00003021;3021;20200329;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3426905 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3426915 </t>
+  </si>
+  <si>
+    <t>LOTE3025</t>
+  </si>
+  <si>
+    <t>3025</t>
+  </si>
+  <si>
+    <t>0000R00003025</t>
+  </si>
+  <si>
+    <t>3426937</t>
+  </si>
+  <si>
+    <t>9181;LOTE3025;20211119;DESC LOTE3025;LOTE3025;N;LOTE3025;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000003025;FNET;FNET;02;ZRET;20200329;;1800000122;20200329;08:00;16:00;20000;Remito electrónico Test;;;9181;66;C/U;LOTE3025;;;;;0000-00003025;3025;20200329;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3426947 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3426957 </t>
+  </si>
+  <si>
+    <t>0001131601</t>
+  </si>
+  <si>
+    <t>0001131599</t>
+  </si>
+  <si>
+    <t>0001131604</t>
+  </si>
+  <si>
+    <t>0001131603</t>
+  </si>
+  <si>
+    <t>0001131612</t>
+  </si>
+  <si>
+    <t>0001131609</t>
+  </si>
+  <si>
+    <t>30.03.2020</t>
+  </si>
+  <si>
+    <t>LOTE3037</t>
+  </si>
+  <si>
+    <t>20200330</t>
+  </si>
+  <si>
+    <t>20211120</t>
+  </si>
+  <si>
+    <t>3037</t>
+  </si>
+  <si>
+    <t>0000R00003037</t>
+  </si>
+  <si>
+    <t>20200130</t>
+  </si>
+  <si>
+    <t>3427063</t>
+  </si>
+  <si>
+    <t>1572;LOTE3037;20211120;DESC LOTE3037;LOTE3037;N;LOTE3037;;AR;;;;;;S;1;S;210;20181103;F;N;</t>
+  </si>
+  <si>
+    <t>05000000003037;FNET;FNET;05;ZRET;20200330;;1800000042;20200330;08:00;16:00;20000;Remito electrónico Test;;;1572;60;C/U;LOTE3037;;;;;0000-00003037;3037;20200330;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200330002C001CLIENTESAPNROOC032202003301572              20           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202003300002073900PEDIDO                                                                          1572              20       139                         05        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD1572  133198CLIENTESAPC00120200330NROOC1  20     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1572              20     816 0  011   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3427073 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3427083 </t>
+  </si>
+  <si>
+    <t>LOTE3041</t>
+  </si>
+  <si>
+    <t>3041</t>
+  </si>
+  <si>
+    <t>0000R00003041</t>
+  </si>
+  <si>
+    <t>3427105</t>
+  </si>
+  <si>
+    <t>1572;LOTE3041;20211120;DESC LOTE3041;LOTE3041;N;LOTE3041;;AR;;;;;;S;1;S;210;20181103;F;N;</t>
+  </si>
+  <si>
+    <t>05000000003041;FNET;FNET;05;ZRET;20200330;;1800000042;20200330;08:00;16:00;20000;Remito electrónico Test;;;1572;60;C/U;LOTE3041;;;;;0000-00003041;3041;20200330;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3427115 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3427125 </t>
+  </si>
+  <si>
+    <t>LOTE3045</t>
+  </si>
+  <si>
+    <t>3045</t>
+  </si>
+  <si>
+    <t>0000R00003045</t>
+  </si>
+  <si>
+    <t>3427147</t>
+  </si>
+  <si>
+    <t>1572;LOTE3045;20211120;DESC LOTE3045;LOTE3045;N;LOTE3045;;AR;;;;;;S;1;S;210;20181103;F;N;</t>
+  </si>
+  <si>
+    <t>05000000003045;FNET;FNET;05;ZRET;20200330;;1800000042;20200330;08:00;16:00;20000;Remito electrónico Test;;;1572;60;C/U;LOTE3045;;;;;0000-00003045;3045;20200330;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3427157 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3427167 </t>
+  </si>
+  <si>
+    <t>LOTE3049</t>
+  </si>
+  <si>
+    <t>3049</t>
+  </si>
+  <si>
+    <t>0000R00003049</t>
+  </si>
+  <si>
+    <t>3427189</t>
+  </si>
+  <si>
+    <t>9181;LOTE3049;20211120;DESC LOTE3049;LOTE3049;N;LOTE3049;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000003049;FNET;FNET;02;ZRET;20200330;;1800000122;20200330;08:00;16:00;20000;Remito electrónico Test;;;9181;66;C/U;LOTE3049;;;;;0000-00003049;3049;20200330;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200330002C001CLIENTESAPNROOC032202003309181              22           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202003300002073900PEDIDO                                                                          9181              22       139                         02        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD9181  133198CLIENTESAPC00120200330NROOC1  22     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    9181              22     816 0  011   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3427199 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3427209 </t>
+  </si>
+  <si>
+    <t>LOTE3053</t>
+  </si>
+  <si>
+    <t>3053</t>
+  </si>
+  <si>
+    <t>0000R00003053</t>
+  </si>
+  <si>
+    <t>3427231</t>
+  </si>
+  <si>
+    <t>9181;LOTE3053;20211120;DESC LOTE3053;LOTE3053;N;LOTE3053;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000003053;FNET;FNET;02;ZRET;20200330;;1800000122;20200330;08:00;16:00;20000;Remito electrónico Test;;;9181;66;C/U;LOTE3053;;;;;0000-00003053;3053;20200330;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3427241 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3427251 </t>
+  </si>
+  <si>
+    <t>LOTE3057</t>
+  </si>
+  <si>
+    <t>3057</t>
+  </si>
+  <si>
+    <t>0000R00003057</t>
+  </si>
+  <si>
+    <t>3427273</t>
+  </si>
+  <si>
+    <t>9181;LOTE3057;20211120;DESC LOTE3057;LOTE3057;N;LOTE3057;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000003057;FNET;FNET;02;ZRET;20200330;;1800000122;20200330;08:00;16:00;20000;Remito electrónico Test;;;9181;66;C/U;LOTE3057;;;;;0000-00003057;3057;20200330;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3427283 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3427293 </t>
+  </si>
+  <si>
+    <t>0001131650</t>
+  </si>
+  <si>
+    <t>0001131654</t>
+  </si>
+  <si>
+    <t>0001131647</t>
+  </si>
+  <si>
+    <t>0001131652</t>
+  </si>
+  <si>
+    <t>0001131655</t>
+  </si>
+  <si>
+    <t>0001131649</t>
+  </si>
+  <si>
+    <t>0001131670</t>
+  </si>
+  <si>
+    <t>0001131660</t>
+  </si>
+  <si>
+    <t>0001131659</t>
+  </si>
+  <si>
+    <t>0001131675</t>
+  </si>
+  <si>
+    <t>0001131664</t>
+  </si>
+  <si>
+    <t>0001131662</t>
+  </si>
+  <si>
+    <t>0001131674</t>
+  </si>
+  <si>
+    <t>0001131678</t>
+  </si>
+  <si>
+    <t>0001131665</t>
+  </si>
+  <si>
+    <t>0001131677</t>
+  </si>
+  <si>
+    <t>0001131669</t>
+  </si>
+  <si>
+    <t>0001131667</t>
+  </si>
+  <si>
+    <t>05000000003037</t>
+  </si>
+  <si>
+    <t>4000007227</t>
+  </si>
+  <si>
+    <t>05000000003041</t>
+  </si>
+  <si>
+    <t>4000007229</t>
+  </si>
+  <si>
+    <t>05000000003045</t>
+  </si>
+  <si>
+    <t>4000007232</t>
+  </si>
+  <si>
+    <t>02000000003049</t>
+  </si>
+  <si>
+    <t>4000007234</t>
+  </si>
+  <si>
+    <t>02000000003053</t>
+  </si>
+  <si>
+    <t>4000007236</t>
+  </si>
+  <si>
+    <t>02000000003057</t>
+  </si>
+  <si>
+    <t>4000007230</t>
+  </si>
+  <si>
+    <t>80872144</t>
+  </si>
+  <si>
+    <t>80872145</t>
+  </si>
+  <si>
+    <t>80872146</t>
+  </si>
+  <si>
+    <t>80872147</t>
+  </si>
+  <si>
+    <t>80872148</t>
+  </si>
+  <si>
+    <t>80872149</t>
+  </si>
+  <si>
+    <t>80872150</t>
+  </si>
+  <si>
+    <t>80872151</t>
+  </si>
+  <si>
+    <t>80872152</t>
+  </si>
+  <si>
+    <t>80872153</t>
+  </si>
+  <si>
+    <t>80872154</t>
+  </si>
+  <si>
+    <t>80872155</t>
+  </si>
+  <si>
+    <t>80872156</t>
+  </si>
+  <si>
+    <t>80872157</t>
+  </si>
+  <si>
+    <t>80872158</t>
+  </si>
+  <si>
+    <t>80872159</t>
+  </si>
+  <si>
+    <t>80872160</t>
+  </si>
+  <si>
+    <t>80872161</t>
   </si>
 </sst>
 </file>
@@ -334,7 +1267,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -344,12 +1277,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,19 +1299,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -699,20 +1621,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2E8823-6EAB-486E-9169-DE992862E70B}">
-  <dimension ref="A1:BD4"/>
+  <dimension ref="A1:BD7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="BD13" sqref="BD13"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AO2" sqref="AO2:AQ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="18.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="16.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="22.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.7109375" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
@@ -739,9 +1661,9 @@
     <col min="32" max="32" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
     <col min="33" max="33" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
     <col min="34" max="34" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="8" width="20.7109375" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="8" width="20.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" style="8" width="23.140625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
     <col min="38" max="38" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
     <col min="39" max="39" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
     <col min="40" max="40" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
@@ -760,28 +1682,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -796,7 +1718,7 @@
       <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="6" t="s">
         <v>14</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -847,7 +1769,7 @@
       <c r="AC1" t="s">
         <v>30</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="6" t="s">
         <v>31</v>
       </c>
       <c r="AE1" t="s">
@@ -856,19 +1778,19 @@
       <c r="AF1" t="s">
         <v>33</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="6" t="s">
         <v>34</v>
       </c>
       <c r="AH1" t="s">
         <v>35</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AI1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AK1" s="7" t="s">
+      <c r="AK1" s="1" t="s">
         <v>38</v>
       </c>
       <c r="AL1" s="1" t="s">
@@ -920,24 +1842,24 @@
         <v>59</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="10">
-        <v>1002</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>52</v>
+      <c r="B2">
+        <v>1572</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
@@ -948,52 +1870,117 @@
       <c r="H2" t="s">
         <v>47</v>
       </c>
+      <c r="I2" t="s">
+        <v>299</v>
+      </c>
+      <c r="J2" t="s">
+        <v>300</v>
+      </c>
+      <c r="K2" t="s">
+        <v>301</v>
+      </c>
+      <c r="L2" t="s">
+        <v>302</v>
+      </c>
       <c r="M2">
         <v>60</v>
       </c>
+      <c r="N2" t="s">
+        <v>303</v>
+      </c>
       <c r="O2" t="s">
         <v>3</v>
       </c>
+      <c r="W2" t="s">
+        <v>71</v>
+      </c>
+      <c r="X2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>305</v>
+      </c>
       <c r="AD2">
         <v>20</v>
       </c>
-      <c r="AG2" s="10">
+      <c r="AG2">
         <v>2010000</v>
       </c>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3"/>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="3"/>
-      <c r="AM2" s="3"/>
-      <c r="AN2" s="3"/>
-      <c r="AO2" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AP2" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AQ2" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="AS2" s="3"/>
-      <c r="AT2" s="3"/>
+      <c r="AI2" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="AQ2" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>386</v>
+      </c>
+      <c r="AS2" s="2"/>
+      <c r="AT2" s="2" t="s">
+        <v>375</v>
+      </c>
       <c r="AU2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AV2" s="9"/>
-      <c r="AW2" s="5" t="s">
-        <v>87</v>
+        <v>298</v>
+      </c>
+      <c r="AV2" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="AW2" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>387</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>388</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>311</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>312</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="10">
-        <v>1906</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>60</v>
+      <c r="B3">
+        <v>1572</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
@@ -1004,52 +1991,117 @@
       <c r="H3" t="s">
         <v>47</v>
       </c>
+      <c r="I3" t="s">
+        <v>313</v>
+      </c>
+      <c r="J3" t="s">
+        <v>300</v>
+      </c>
+      <c r="K3" t="s">
+        <v>301</v>
+      </c>
+      <c r="L3" t="s">
+        <v>314</v>
+      </c>
       <c r="M3">
-        <v>63</v>
+        <v>60</v>
+      </c>
+      <c r="N3" t="s">
+        <v>315</v>
       </c>
       <c r="O3" t="s">
         <v>3</v>
       </c>
+      <c r="W3" t="s">
+        <v>71</v>
+      </c>
+      <c r="X3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>316</v>
+      </c>
       <c r="AD3">
-        <v>21</v>
-      </c>
-      <c r="AG3" s="10">
-        <v>2067902</v>
-      </c>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="3"/>
-      <c r="AL3" s="3"/>
-      <c r="AM3" s="3"/>
-      <c r="AN3" s="3"/>
-      <c r="AO3" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AP3" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AQ3" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="AS3" s="3"/>
-      <c r="AT3" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="AG3">
+        <v>2010000</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="AN3" s="2"/>
+      <c r="AO3" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="AP3" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="AQ3" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>389</v>
+      </c>
+      <c r="AS3" s="2"/>
+      <c r="AT3" s="2" t="s">
+        <v>377</v>
+      </c>
       <c r="AU3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AV3" s="3"/>
-      <c r="AW3" s="5" t="s">
-        <v>88</v>
+        <v>298</v>
+      </c>
+      <c r="AV3" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="AW3" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>390</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>391</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>319</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>320</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="10">
-        <v>9181</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>52</v>
+      <c r="B4">
+        <v>1572</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
@@ -1061,100 +2113,468 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>321</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>300</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>301</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>322</v>
       </c>
       <c r="M4">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>323</v>
       </c>
       <c r="O4" t="s">
         <v>3</v>
       </c>
       <c r="W4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="X4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>304</v>
       </c>
       <c r="Z4" t="s">
-        <v>70</v>
+        <v>324</v>
       </c>
       <c r="AD4">
+        <v>20</v>
+      </c>
+      <c r="AG4">
+        <v>2010000</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="AK4" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="AL4" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="AM4" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="AN4" s="2"/>
+      <c r="AO4" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="AP4" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="AQ4" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>392</v>
+      </c>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>298</v>
+      </c>
+      <c r="AV4" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="AW4" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>393</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>394</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>79</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>79</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>327</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>328</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5">
+        <v>9181</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>329</v>
+      </c>
+      <c r="J5" t="s">
+        <v>300</v>
+      </c>
+      <c r="K5" t="s">
+        <v>301</v>
+      </c>
+      <c r="L5" t="s">
+        <v>330</v>
+      </c>
+      <c r="M5">
+        <v>66</v>
+      </c>
+      <c r="N5" t="s">
+        <v>331</v>
+      </c>
+      <c r="O5" t="s">
+        <v>3</v>
+      </c>
+      <c r="W5" t="s">
+        <v>71</v>
+      </c>
+      <c r="X5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>332</v>
+      </c>
+      <c r="AD5">
         <v>22</v>
       </c>
-      <c r="AG4" s="10">
+      <c r="AG5">
         <v>2010000</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AI5" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="AJ5" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="AK5" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="AL5" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="AM5" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="AN5" s="2"/>
+      <c r="AO5" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="AP5" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="AQ5" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>395</v>
+      </c>
+      <c r="AS5" s="2"/>
+      <c r="AT5" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>298</v>
+      </c>
+      <c r="AV5" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="AW5" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>396</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>397</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>79</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>79</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>338</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>339</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6">
+        <v>9181</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>340</v>
+      </c>
+      <c r="J6" t="s">
+        <v>300</v>
+      </c>
+      <c r="K6" t="s">
+        <v>301</v>
+      </c>
+      <c r="L6" t="s">
+        <v>341</v>
+      </c>
+      <c r="M6">
+        <v>66</v>
+      </c>
+      <c r="N6" t="s">
+        <v>342</v>
+      </c>
+      <c r="O6" t="s">
+        <v>3</v>
+      </c>
+      <c r="W6" t="s">
         <v>71</v>
       </c>
-      <c r="AJ4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>89</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>76</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>76</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>77</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>78</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>70</v>
+      <c r="X6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>343</v>
+      </c>
+      <c r="AD6">
+        <v>22</v>
+      </c>
+      <c r="AG6">
+        <v>2010000</v>
+      </c>
+      <c r="AI6" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="AJ6" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="AK6" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="AL6" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="AM6" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="AN6" s="2"/>
+      <c r="AO6" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="AP6" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="AQ6" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>398</v>
+      </c>
+      <c r="AS6" s="2"/>
+      <c r="AT6" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>298</v>
+      </c>
+      <c r="AV6" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="AW6" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>399</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>400</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>79</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>79</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>346</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>347</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7">
+        <v>9181</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>348</v>
+      </c>
+      <c r="J7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K7" t="s">
+        <v>301</v>
+      </c>
+      <c r="L7" t="s">
+        <v>349</v>
+      </c>
+      <c r="M7">
+        <v>66</v>
+      </c>
+      <c r="N7" t="s">
+        <v>350</v>
+      </c>
+      <c r="O7" t="s">
+        <v>3</v>
+      </c>
+      <c r="W7" t="s">
+        <v>71</v>
+      </c>
+      <c r="X7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>351</v>
+      </c>
+      <c r="AD7">
+        <v>22</v>
+      </c>
+      <c r="AG7">
+        <v>2010000</v>
+      </c>
+      <c r="AI7" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="AJ7" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="AK7" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="AL7" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="AM7" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="AN7" s="2"/>
+      <c r="AO7" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="AP7" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="AQ7" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>401</v>
+      </c>
+      <c r="AS7" s="2"/>
+      <c r="AT7" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>298</v>
+      </c>
+      <c r="AV7" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="AW7" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>402</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>403</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>79</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>79</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>354</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>355</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>351</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/db_farmanet_escenarios_Andreani.xlsx
+++ b/Resources/db_farmanet_escenarios_Andreani.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alflopez-ext\Documents\Automation\Proyectos_Katalon\git\katalonProjects\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FarmaTesting\katalonProjects\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD505D9-A5D6-4EBD-8BF7-1DBB05242413}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7431E3D-EA9E-4D2B-B89C-82FBBA12855D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{DCE7E561-B195-4D45-B807-475C6552309D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1631" uniqueCount="884">
   <si>
     <t>filtrar</t>
   </si>
@@ -227,1024 +227,2464 @@
     <t>05</t>
   </si>
   <si>
-    <t>27.03.2020</t>
-  </si>
-  <si>
-    <t>16:55</t>
-  </si>
-  <si>
-    <t>LOTE2943</t>
-  </si>
-  <si>
-    <t>20200327</t>
-  </si>
-  <si>
-    <t>20211117</t>
-  </si>
-  <si>
-    <t>2943</t>
-  </si>
-  <si>
-    <t>0000R00002943</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>20200127</t>
-  </si>
-  <si>
-    <t>3426076</t>
-  </si>
-  <si>
-    <t>9181;LOTE2943;20211117;DESC LOTE2943;LOTE2943;N;LOTE2943;;AR;;;;;;N;;;210;20181103;;N;</t>
-  </si>
-  <si>
-    <t>02000000002943;FNET;FNET;02;ZRET;20200327;;1800000122;20200327;08:00;16:00;20000;Remito electrónico Test;;;9181;66;C/U;LOTE2943;;;;;0000-00002943;2943;20200327;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEDIDO            20200327002C001CLIENTESAPNROOC032202003279181              22           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">202003270002073900PEDIDO                                                                          9181              22       139                         02        03      NUMEROWE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VTD9181  133198CLIENTESAPC00120200327NROOC1  22     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    9181              22     816 0  011   </t>
-  </si>
-  <si>
     <t>NO</t>
   </si>
   <si>
-    <t xml:space="preserve">3426086 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3426096 </t>
-  </si>
-  <si>
-    <t>0001131506</t>
-  </si>
-  <si>
-    <t>0001131505</t>
-  </si>
-  <si>
-    <t>0001131504</t>
-  </si>
-  <si>
-    <t>02000000002943</t>
-  </si>
-  <si>
-    <t>4000007184</t>
-  </si>
-  <si>
-    <t>17:25</t>
-  </si>
-  <si>
-    <t>LOTE2945</t>
-  </si>
-  <si>
-    <t>2945</t>
-  </si>
-  <si>
-    <t>0000R00002945</t>
-  </si>
-  <si>
-    <t>3426097</t>
-  </si>
-  <si>
-    <t>9181;LOTE2945;20211117;DESC LOTE2945;LOTE2945;N;LOTE2945;;AR;;;;;;N;;;210;20181103;;N;</t>
-  </si>
-  <si>
-    <t>02000000002945;FNET;FNET;02;ZRET;20200327;;1800000122;20200327;08:00;16:00;20000;Remito electrónico Test;;;9181;66;C/U;LOTE2945;;;;;0000-00002945;2945;20200327;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3426107 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3426117 </t>
-  </si>
-  <si>
-    <t>LOTE2949</t>
-  </si>
-  <si>
-    <t>2949</t>
-  </si>
-  <si>
-    <t>0000R00002949</t>
-  </si>
-  <si>
-    <t>3426139</t>
-  </si>
-  <si>
-    <t>9181;LOTE2949;20211117;DESC LOTE2949;LOTE2949;N;LOTE2949;;AR;;;;;;N;;;210;20181103;;N;</t>
-  </si>
-  <si>
-    <t>02000000002949;FNET;FNET;02;ZRET;20200327;;1800000122;20200327;08:00;16:00;20000;Remito electrónico Test;;;9181;66;C/U;LOTE2949;;;;;0000-00002949;2949;20200327;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3426149 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3426159 </t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>18:12</t>
-  </si>
-  <si>
-    <t>LOTE2961</t>
-  </si>
-  <si>
-    <t>2961</t>
-  </si>
-  <si>
-    <t>0000R00002961</t>
-  </si>
-  <si>
-    <t>3426265</t>
-  </si>
-  <si>
-    <t>1572;LOTE2961;20211117;DESC LOTE2961;LOTE2961;N;LOTE2961;;AR;;;;;;S;1;S;210;20181103;F;N;</t>
-  </si>
-  <si>
-    <t>05000000002961;FNET;FNET;05;ZRET;20200327;;1800000042;20200327;08:00;16:00;20000;Remito electrónico Test;;;1572;60;C/U;LOTE2961;;;;;0000-00002961;2961;20200327;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEDIDO            20200327002C001CLIENTESAPNROOC032202003271572              20           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">202003270002073900PEDIDO                                                                          1572              20       139                         05        03      NUMEROWE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VTD1572  133198CLIENTESAPC00120200327NROOC1  20     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1572              20     816 0  011   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3426275 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3426285 </t>
-  </si>
-  <si>
-    <t>LOTE2965</t>
-  </si>
-  <si>
-    <t>2965</t>
-  </si>
-  <si>
-    <t>0000R00002965</t>
-  </si>
-  <si>
-    <t>3426307</t>
-  </si>
-  <si>
-    <t>1572;LOTE2965;20211117;DESC LOTE2965;LOTE2965;N;LOTE2965;;AR;;;;;;S;1;S;210;20181103;F;N;</t>
-  </si>
-  <si>
-    <t>05000000002965;FNET;FNET;05;ZRET;20200327;;1800000042;20200327;08:00;16:00;20000;Remito electrónico Test;;;1572;60;C/U;LOTE2965;;;;;0000-00002965;2965;20200327;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3426317 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3426327 </t>
-  </si>
-  <si>
-    <t>18:13</t>
-  </si>
-  <si>
-    <t>LOTE2969</t>
-  </si>
-  <si>
-    <t>2969</t>
-  </si>
-  <si>
-    <t>0000R00002969</t>
-  </si>
-  <si>
-    <t>3426349</t>
-  </si>
-  <si>
-    <t>1572;LOTE2969;20211117;DESC LOTE2969;LOTE2969;N;LOTE2969;;AR;;;;;;S;1;S;210;20181103;F;N;</t>
-  </si>
-  <si>
-    <t>05000000002969;FNET;FNET;05;ZRET;20200327;;1800000042;20200327;08:00;16:00;20000;Remito electrónico Test;;;1572;60;C/U;LOTE2969;;;;;0000-00002969;2969;20200327;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3426359 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3426369 </t>
-  </si>
-  <si>
-    <t>0001131533</t>
-  </si>
-  <si>
-    <t>0001131531</t>
-  </si>
-  <si>
-    <t>0001131532</t>
-  </si>
-  <si>
-    <t>0001131536</t>
-  </si>
-  <si>
-    <t>0001131546</t>
-  </si>
-  <si>
-    <t>0001131539</t>
-  </si>
-  <si>
-    <t>0001131541</t>
-  </si>
-  <si>
-    <t>0001131547</t>
-  </si>
-  <si>
-    <t>0001131538</t>
-  </si>
-  <si>
-    <t>0001131507</t>
-  </si>
-  <si>
-    <t>0001131509</t>
-  </si>
-  <si>
-    <t>0001131508</t>
-  </si>
-  <si>
-    <t>0001131515</t>
-  </si>
-  <si>
-    <t>0001131511</t>
-  </si>
-  <si>
-    <t>0001131514</t>
-  </si>
-  <si>
-    <t>05000000002961</t>
-  </si>
-  <si>
-    <t>4000007193</t>
-  </si>
-  <si>
-    <t>05000000002965</t>
-  </si>
-  <si>
-    <t>4000007194</t>
-  </si>
-  <si>
-    <t>05000000002969</t>
-  </si>
-  <si>
-    <t>4000007196</t>
-  </si>
-  <si>
-    <t>02000000002945</t>
-  </si>
-  <si>
-    <t>4000007188</t>
-  </si>
-  <si>
-    <t>02000000002949</t>
-  </si>
-  <si>
-    <t>4000007190</t>
-  </si>
-  <si>
-    <t>28.03.2020</t>
-  </si>
-  <si>
     <t>04:44</t>
   </si>
   <si>
-    <t>LOTE2973</t>
-  </si>
-  <si>
-    <t>20200328</t>
-  </si>
-  <si>
-    <t>20211118</t>
-  </si>
-  <si>
-    <t>2973</t>
-  </si>
-  <si>
-    <t>0000R00002973</t>
-  </si>
-  <si>
-    <t>20200128</t>
-  </si>
-  <si>
-    <t>3426391</t>
-  </si>
-  <si>
-    <t>1572;LOTE2973;20211118;DESC LOTE2973;LOTE2973;N;LOTE2973;;AR;;;;;;S;1;S;210;20181103;F;N;</t>
-  </si>
-  <si>
-    <t>05000000002973;FNET;FNET;05;ZRET;20200328;;1800000042;20200328;08:00;16:00;20000;Remito electrónico Test;;;1572;60;C/U;LOTE2973;;;;;0000-00002973;2973;20200328;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEDIDO            20200328002C001CLIENTESAPNROOC032202003281572              20           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">202003280002073900PEDIDO                                                                          1572              20       139                         05        03      NUMEROWE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VTD1572  133198CLIENTESAPC00120200328NROOC1  20     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1572              20     816 0  011   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3426401 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3426411 </t>
-  </si>
-  <si>
-    <t>LOTE2977</t>
-  </si>
-  <si>
-    <t>2977</t>
-  </si>
-  <si>
-    <t>0000R00002977</t>
-  </si>
-  <si>
-    <t>3426433</t>
-  </si>
-  <si>
-    <t>1572;LOTE2977;20211118;DESC LOTE2977;LOTE2977;N;LOTE2977;;AR;;;;;;S;1;S;210;20181103;F;N;</t>
-  </si>
-  <si>
-    <t>05000000002977;FNET;FNET;05;ZRET;20200328;;1800000042;20200328;08:00;16:00;20000;Remito electrónico Test;;;1572;60;C/U;LOTE2977;;;;;0000-00002977;2977;20200328;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3426443 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3426453 </t>
-  </si>
-  <si>
-    <t>LOTE2981</t>
-  </si>
-  <si>
-    <t>2981</t>
-  </si>
-  <si>
-    <t>0000R00002981</t>
-  </si>
-  <si>
-    <t>3426475</t>
-  </si>
-  <si>
-    <t>1572;LOTE2981;20211118;DESC LOTE2981;LOTE2981;N;LOTE2981;;AR;;;;;;S;1;S;210;20181103;F;N;</t>
-  </si>
-  <si>
-    <t>05000000002981;FNET;FNET;05;ZRET;20200328;;1800000042;20200328;08:00;16:00;20000;Remito electrónico Test;;;1572;60;C/U;LOTE2981;;;;;0000-00002981;2981;20200328;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3426485 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3426495 </t>
-  </si>
-  <si>
-    <t>LOTE2985</t>
-  </si>
-  <si>
-    <t>2985</t>
-  </si>
-  <si>
-    <t>0000R00002985</t>
-  </si>
-  <si>
-    <t>3426517</t>
-  </si>
-  <si>
-    <t>9181;LOTE2985;20211118;DESC LOTE2985;LOTE2985;N;LOTE2985;;AR;;;;;;N;;;210;20181103;;N;</t>
-  </si>
-  <si>
-    <t>02000000002985;FNET;FNET;02;ZRET;20200328;;1800000122;20200328;08:00;16:00;20000;Remito electrónico Test;;;9181;66;C/U;LOTE2985;;;;;0000-00002985;2985;20200328;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEDIDO            20200328002C001CLIENTESAPNROOC032202003289181              22           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">202003280002073900PEDIDO                                                                          9181              22       139                         02        03      NUMEROWE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VTD9181  133198CLIENTESAPC00120200328NROOC1  22     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    9181              22     816 0  011   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3426527 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3426537 </t>
-  </si>
-  <si>
-    <t>LOTE2989</t>
-  </si>
-  <si>
-    <t>2989</t>
-  </si>
-  <si>
-    <t>0000R00002989</t>
-  </si>
-  <si>
-    <t>3426559</t>
-  </si>
-  <si>
-    <t>9181;LOTE2989;20211118;DESC LOTE2989;LOTE2989;N;LOTE2989;;AR;;;;;;N;;;210;20181103;;N;</t>
-  </si>
-  <si>
-    <t>02000000002989;FNET;FNET;02;ZRET;20200328;;1800000122;20200328;08:00;16:00;20000;Remito electrónico Test;;;9181;66;C/U;LOTE2989;;;;;0000-00002989;2989;20200328;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3426569 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3426579 </t>
-  </si>
-  <si>
-    <t>04:45</t>
-  </si>
-  <si>
-    <t>LOTE2993</t>
-  </si>
-  <si>
-    <t>2993</t>
-  </si>
-  <si>
-    <t>0000R00002993</t>
-  </si>
-  <si>
-    <t>3426601</t>
-  </si>
-  <si>
-    <t>9181;LOTE2993;20211118;DESC LOTE2993;LOTE2993;N;LOTE2993;;AR;;;;;;N;;;210;20181103;;N;</t>
-  </si>
-  <si>
-    <t>02000000002993;FNET;FNET;02;ZRET;20200328;;1800000122;20200328;08:00;16:00;20000;Remito electrónico Test;;;9181;66;C/U;LOTE2993;;;;;0000-00002993;2993;20200328;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3426611 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3426621 </t>
-  </si>
-  <si>
-    <t>0001131554</t>
-  </si>
-  <si>
-    <t>0001131553</t>
-  </si>
-  <si>
-    <t>0001131551</t>
-  </si>
-  <si>
-    <t>0001131572</t>
-  </si>
-  <si>
-    <t>0001131559</t>
-  </si>
-  <si>
-    <t>0001131556</t>
-  </si>
-  <si>
-    <t>0001131577</t>
-  </si>
-  <si>
-    <t>0001131561</t>
-  </si>
-  <si>
-    <t>0001131560</t>
-  </si>
-  <si>
-    <t>0001131578</t>
-  </si>
-  <si>
-    <t>0001131563</t>
-  </si>
-  <si>
-    <t>0001131566</t>
-  </si>
-  <si>
-    <t>0001131583</t>
-  </si>
-  <si>
-    <t>0001131568</t>
-  </si>
-  <si>
-    <t>0001131573</t>
-  </si>
-  <si>
-    <t>29.03.2020</t>
-  </si>
-  <si>
-    <t>LOTE3005</t>
-  </si>
-  <si>
-    <t>20200329</t>
-  </si>
-  <si>
-    <t>20211119</t>
-  </si>
-  <si>
-    <t>3005</t>
-  </si>
-  <si>
-    <t>0000R00003005</t>
-  </si>
-  <si>
-    <t>20200129</t>
-  </si>
-  <si>
-    <t>3426727</t>
-  </si>
-  <si>
-    <t>1572;LOTE3005;20211119;DESC LOTE3005;LOTE3005;N;LOTE3005;;AR;;;;;;S;1;S;210;20181103;F;N;</t>
-  </si>
-  <si>
-    <t>05000000003005;FNET;FNET;05;ZRET;20200329;;1800000042;20200329;08:00;16:00;20000;Remito electrónico Test;;;1572;60;C/U;LOTE3005;;;;;0000-00003005;3005;20200329;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEDIDO            20200329002C001CLIENTESAPNROOC032202003291572              20           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">202003290002073900PEDIDO                                                                          1572              20       139                         05        03      NUMEROWE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VTD1572  133198CLIENTESAPC00120200329NROOC1  20     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1572              20     816 0  011   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3426737 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3426747 </t>
-  </si>
-  <si>
-    <t>LOTE3009</t>
-  </si>
-  <si>
-    <t>3009</t>
-  </si>
-  <si>
-    <t>0000R00003009</t>
-  </si>
-  <si>
-    <t>3426769</t>
-  </si>
-  <si>
-    <t>1572;LOTE3009;20211119;DESC LOTE3009;LOTE3009;N;LOTE3009;;AR;;;;;;S;1;S;210;20181103;F;N;</t>
-  </si>
-  <si>
-    <t>05000000003009;FNET;FNET;05;ZRET;20200329;;1800000042;20200329;08:00;16:00;20000;Remito electrónico Test;;;1572;60;C/U;LOTE3009;;;;;0000-00003009;3009;20200329;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3426779 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3426789 </t>
-  </si>
-  <si>
-    <t>LOTE3013</t>
-  </si>
-  <si>
-    <t>3013</t>
-  </si>
-  <si>
-    <t>0000R00003013</t>
-  </si>
-  <si>
-    <t>3426811</t>
-  </si>
-  <si>
-    <t>1572;LOTE3013;20211119;DESC LOTE3013;LOTE3013;N;LOTE3013;;AR;;;;;;S;1;S;210;20181103;F;N;</t>
-  </si>
-  <si>
-    <t>05000000003013;FNET;FNET;05;ZRET;20200329;;1800000042;20200329;08:00;16:00;20000;Remito electrónico Test;;;1572;60;C/U;LOTE3013;;;;;0000-00003013;3013;20200329;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3426821 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3426831 </t>
-  </si>
-  <si>
-    <t>LOTE3017</t>
-  </si>
-  <si>
-    <t>3017</t>
-  </si>
-  <si>
-    <t>0000R00003017</t>
-  </si>
-  <si>
-    <t>3426853</t>
-  </si>
-  <si>
-    <t>9181;LOTE3017;20211119;DESC LOTE3017;LOTE3017;N;LOTE3017;;AR;;;;;;N;;;210;20181103;;N;</t>
-  </si>
-  <si>
-    <t>02000000003017;FNET;FNET;02;ZRET;20200329;;1800000122;20200329;08:00;16:00;20000;Remito electrónico Test;;;9181;66;C/U;LOTE3017;;;;;0000-00003017;3017;20200329;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEDIDO            20200329002C001CLIENTESAPNROOC032202003299181              22           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">202003290002073900PEDIDO                                                                          9181              22       139                         02        03      NUMEROWE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VTD9181  133198CLIENTESAPC00120200329NROOC1  22     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    9181              22     816 0  011   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3426863 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3426873 </t>
-  </si>
-  <si>
-    <t>LOTE3021</t>
-  </si>
-  <si>
-    <t>3021</t>
-  </si>
-  <si>
-    <t>0000R00003021</t>
-  </si>
-  <si>
-    <t>3426895</t>
-  </si>
-  <si>
-    <t>9181;LOTE3021;20211119;DESC LOTE3021;LOTE3021;N;LOTE3021;;AR;;;;;;N;;;210;20181103;;N;</t>
-  </si>
-  <si>
-    <t>02000000003021;FNET;FNET;02;ZRET;20200329;;1800000122;20200329;08:00;16:00;20000;Remito electrónico Test;;;9181;66;C/U;LOTE3021;;;;;0000-00003021;3021;20200329;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3426905 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3426915 </t>
-  </si>
-  <si>
-    <t>LOTE3025</t>
-  </si>
-  <si>
-    <t>3025</t>
-  </si>
-  <si>
-    <t>0000R00003025</t>
-  </si>
-  <si>
-    <t>3426937</t>
-  </si>
-  <si>
-    <t>9181;LOTE3025;20211119;DESC LOTE3025;LOTE3025;N;LOTE3025;;AR;;;;;;N;;;210;20181103;;N;</t>
-  </si>
-  <si>
-    <t>02000000003025;FNET;FNET;02;ZRET;20200329;;1800000122;20200329;08:00;16:00;20000;Remito electrónico Test;;;9181;66;C/U;LOTE3025;;;;;0000-00003025;3025;20200329;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3426947 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3426957 </t>
-  </si>
-  <si>
-    <t>0001131601</t>
-  </si>
-  <si>
-    <t>0001131599</t>
-  </si>
-  <si>
-    <t>0001131604</t>
-  </si>
-  <si>
-    <t>0001131603</t>
-  </si>
-  <si>
-    <t>0001131612</t>
-  </si>
-  <si>
-    <t>0001131609</t>
-  </si>
-  <si>
-    <t>30.03.2020</t>
-  </si>
-  <si>
-    <t>LOTE3037</t>
-  </si>
-  <si>
-    <t>20200330</t>
-  </si>
-  <si>
-    <t>20211120</t>
-  </si>
-  <si>
-    <t>3037</t>
-  </si>
-  <si>
-    <t>0000R00003037</t>
-  </si>
-  <si>
-    <t>20200130</t>
-  </si>
-  <si>
-    <t>3427063</t>
-  </si>
-  <si>
-    <t>1572;LOTE3037;20211120;DESC LOTE3037;LOTE3037;N;LOTE3037;;AR;;;;;;S;1;S;210;20181103;F;N;</t>
-  </si>
-  <si>
-    <t>05000000003037;FNET;FNET;05;ZRET;20200330;;1800000042;20200330;08:00;16:00;20000;Remito electrónico Test;;;1572;60;C/U;LOTE3037;;;;;0000-00003037;3037;20200330;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEDIDO            20200330002C001CLIENTESAPNROOC032202003301572              20           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">202003300002073900PEDIDO                                                                          1572              20       139                         05        03      NUMEROWE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VTD1572  133198CLIENTESAPC00120200330NROOC1  20     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1572              20     816 0  011   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3427073 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3427083 </t>
-  </si>
-  <si>
-    <t>LOTE3041</t>
-  </si>
-  <si>
-    <t>3041</t>
-  </si>
-  <si>
-    <t>0000R00003041</t>
-  </si>
-  <si>
-    <t>3427105</t>
-  </si>
-  <si>
-    <t>1572;LOTE3041;20211120;DESC LOTE3041;LOTE3041;N;LOTE3041;;AR;;;;;;S;1;S;210;20181103;F;N;</t>
-  </si>
-  <si>
-    <t>05000000003041;FNET;FNET;05;ZRET;20200330;;1800000042;20200330;08:00;16:00;20000;Remito electrónico Test;;;1572;60;C/U;LOTE3041;;;;;0000-00003041;3041;20200330;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3427115 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3427125 </t>
-  </si>
-  <si>
-    <t>LOTE3045</t>
-  </si>
-  <si>
-    <t>3045</t>
-  </si>
-  <si>
-    <t>0000R00003045</t>
-  </si>
-  <si>
-    <t>3427147</t>
-  </si>
-  <si>
-    <t>1572;LOTE3045;20211120;DESC LOTE3045;LOTE3045;N;LOTE3045;;AR;;;;;;S;1;S;210;20181103;F;N;</t>
-  </si>
-  <si>
-    <t>05000000003045;FNET;FNET;05;ZRET;20200330;;1800000042;20200330;08:00;16:00;20000;Remito electrónico Test;;;1572;60;C/U;LOTE3045;;;;;0000-00003045;3045;20200330;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3427157 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3427167 </t>
-  </si>
-  <si>
-    <t>LOTE3049</t>
-  </si>
-  <si>
-    <t>3049</t>
-  </si>
-  <si>
-    <t>0000R00003049</t>
-  </si>
-  <si>
-    <t>3427189</t>
-  </si>
-  <si>
-    <t>9181;LOTE3049;20211120;DESC LOTE3049;LOTE3049;N;LOTE3049;;AR;;;;;;N;;;210;20181103;;N;</t>
-  </si>
-  <si>
-    <t>02000000003049;FNET;FNET;02;ZRET;20200330;;1800000122;20200330;08:00;16:00;20000;Remito electrónico Test;;;9181;66;C/U;LOTE3049;;;;;0000-00003049;3049;20200330;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEDIDO            20200330002C001CLIENTESAPNROOC032202003309181              22           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">202003300002073900PEDIDO                                                                          9181              22       139                         02        03      NUMEROWE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VTD9181  133198CLIENTESAPC00120200330NROOC1  22     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    9181              22     816 0  011   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3427199 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3427209 </t>
-  </si>
-  <si>
-    <t>LOTE3053</t>
-  </si>
-  <si>
-    <t>3053</t>
-  </si>
-  <si>
-    <t>0000R00003053</t>
-  </si>
-  <si>
-    <t>3427231</t>
-  </si>
-  <si>
-    <t>9181;LOTE3053;20211120;DESC LOTE3053;LOTE3053;N;LOTE3053;;AR;;;;;;N;;;210;20181103;;N;</t>
-  </si>
-  <si>
-    <t>02000000003053;FNET;FNET;02;ZRET;20200330;;1800000122;20200330;08:00;16:00;20000;Remito electrónico Test;;;9181;66;C/U;LOTE3053;;;;;0000-00003053;3053;20200330;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3427241 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3427251 </t>
-  </si>
-  <si>
-    <t>LOTE3057</t>
-  </si>
-  <si>
-    <t>3057</t>
-  </si>
-  <si>
-    <t>0000R00003057</t>
-  </si>
-  <si>
-    <t>3427273</t>
-  </si>
-  <si>
-    <t>9181;LOTE3057;20211120;DESC LOTE3057;LOTE3057;N;LOTE3057;;AR;;;;;;N;;;210;20181103;;N;</t>
-  </si>
-  <si>
-    <t>02000000003057;FNET;FNET;02;ZRET;20200330;;1800000122;20200330;08:00;16:00;20000;Remito electrónico Test;;;9181;66;C/U;LOTE3057;;;;;0000-00003057;3057;20200330;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3427283 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3427293 </t>
-  </si>
-  <si>
-    <t>0001131650</t>
-  </si>
-  <si>
-    <t>0001131654</t>
-  </si>
-  <si>
-    <t>0001131647</t>
-  </si>
-  <si>
-    <t>0001131652</t>
-  </si>
-  <si>
-    <t>0001131655</t>
-  </si>
-  <si>
-    <t>0001131649</t>
-  </si>
-  <si>
-    <t>0001131670</t>
-  </si>
-  <si>
-    <t>0001131660</t>
-  </si>
-  <si>
-    <t>0001131659</t>
-  </si>
-  <si>
-    <t>0001131675</t>
-  </si>
-  <si>
-    <t>0001131664</t>
-  </si>
-  <si>
-    <t>0001131662</t>
-  </si>
-  <si>
-    <t>0001131674</t>
-  </si>
-  <si>
-    <t>0001131678</t>
-  </si>
-  <si>
-    <t>0001131665</t>
-  </si>
-  <si>
-    <t>0001131677</t>
-  </si>
-  <si>
-    <t>0001131669</t>
-  </si>
-  <si>
-    <t>0001131667</t>
-  </si>
-  <si>
-    <t>05000000003037</t>
-  </si>
-  <si>
-    <t>4000007227</t>
-  </si>
-  <si>
-    <t>05000000003041</t>
-  </si>
-  <si>
-    <t>4000007229</t>
-  </si>
-  <si>
-    <t>05000000003045</t>
-  </si>
-  <si>
-    <t>4000007232</t>
-  </si>
-  <si>
-    <t>02000000003049</t>
-  </si>
-  <si>
-    <t>4000007234</t>
-  </si>
-  <si>
-    <t>02000000003053</t>
-  </si>
-  <si>
-    <t>4000007236</t>
-  </si>
-  <si>
-    <t>02000000003057</t>
-  </si>
-  <si>
-    <t>4000007230</t>
-  </si>
-  <si>
-    <t>80872144</t>
-  </si>
-  <si>
-    <t>80872145</t>
-  </si>
-  <si>
-    <t>80872146</t>
-  </si>
-  <si>
-    <t>80872147</t>
-  </si>
-  <si>
-    <t>80872148</t>
-  </si>
-  <si>
-    <t>80872149</t>
-  </si>
-  <si>
-    <t>80872150</t>
-  </si>
-  <si>
-    <t>80872151</t>
-  </si>
-  <si>
-    <t>80872152</t>
-  </si>
-  <si>
-    <t>80872153</t>
-  </si>
-  <si>
-    <t>80872154</t>
-  </si>
-  <si>
-    <t>80872155</t>
-  </si>
-  <si>
-    <t>80872156</t>
-  </si>
-  <si>
-    <t>80872157</t>
-  </si>
-  <si>
-    <t>80872158</t>
-  </si>
-  <si>
-    <t>80872159</t>
-  </si>
-  <si>
-    <t>80872160</t>
-  </si>
-  <si>
-    <t>80872161</t>
+    <t>04:43</t>
+  </si>
+  <si>
+    <t>80872183</t>
+  </si>
+  <si>
+    <t>80872184</t>
+  </si>
+  <si>
+    <t>80872185</t>
+  </si>
+  <si>
+    <t>80872186</t>
+  </si>
+  <si>
+    <t>80872187</t>
+  </si>
+  <si>
+    <t>80872188</t>
+  </si>
+  <si>
+    <t>80872189</t>
+  </si>
+  <si>
+    <t>80872190</t>
+  </si>
+  <si>
+    <t>80872191</t>
+  </si>
+  <si>
+    <t>80872192</t>
+  </si>
+  <si>
+    <t>80872193</t>
+  </si>
+  <si>
+    <t>80872194</t>
+  </si>
+  <si>
+    <t>80872195</t>
+  </si>
+  <si>
+    <t>80872196</t>
+  </si>
+  <si>
+    <t>80872197</t>
+  </si>
+  <si>
+    <t>80872198</t>
+  </si>
+  <si>
+    <t>80872199</t>
+  </si>
+  <si>
+    <t>80872200</t>
+  </si>
+  <si>
+    <t>08.04.2020</t>
+  </si>
+  <si>
+    <t>LOTE3293</t>
+  </si>
+  <si>
+    <t>20200408</t>
+  </si>
+  <si>
+    <t>20211129</t>
+  </si>
+  <si>
+    <t>3293</t>
+  </si>
+  <si>
+    <t>0000R00003293</t>
+  </si>
+  <si>
+    <t>20200208</t>
+  </si>
+  <si>
+    <t>3429751</t>
+  </si>
+  <si>
+    <t>1572;LOTE3293;20211129;DESC LOTE3293;LOTE3293;N;LOTE3293;;AR;;;;;;S;1;S;210;20181103;F;N;</t>
+  </si>
+  <si>
+    <t>05000000003293;FNET;FNET;05;ZRET;20200408;;1800000042;20200408;08:00;16:00;20000;Remito electrónico Test;;;1572;60;C/U;LOTE3293;;;;;0000-00003293;3293;20200408;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200408002C001CLIENTESAPNROOC032202004081572              20           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202004080002073900PEDIDO                                                                          1572              20       139                         05        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD1572  133198CLIENTESAPC00120200408NROOC1  20     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1572              20     816 0  011   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3429761 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3429771 </t>
+  </si>
+  <si>
+    <t>LOTE3297</t>
+  </si>
+  <si>
+    <t>3297</t>
+  </si>
+  <si>
+    <t>0000R00003297</t>
+  </si>
+  <si>
+    <t>3429793</t>
+  </si>
+  <si>
+    <t>1572;LOTE3297;20211129;DESC LOTE3297;LOTE3297;N;LOTE3297;;AR;;;;;;S;1;S;210;20181103;F;N;</t>
+  </si>
+  <si>
+    <t>05000000003297;FNET;FNET;05;ZRET;20200408;;1800000042;20200408;08:00;16:00;20000;Remito electrónico Test;;;1572;60;C/U;LOTE3297;;;;;0000-00003297;3297;20200408;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3429803 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3429813 </t>
+  </si>
+  <si>
+    <t>LOTE3301</t>
+  </si>
+  <si>
+    <t>3301</t>
+  </si>
+  <si>
+    <t>0000R00003301</t>
+  </si>
+  <si>
+    <t>3429835</t>
+  </si>
+  <si>
+    <t>1572;LOTE3301;20211129;DESC LOTE3301;LOTE3301;N;LOTE3301;;AR;;;;;;S;1;S;210;20181103;F;N;</t>
+  </si>
+  <si>
+    <t>05000000003301;FNET;FNET;05;ZRET;20200408;;1800000042;20200408;08:00;16:00;20000;Remito electrónico Test;;;1572;60;C/U;LOTE3301;;;;;0000-00003301;3301;20200408;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3429845 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3429855 </t>
+  </si>
+  <si>
+    <t>LOTE3305</t>
+  </si>
+  <si>
+    <t>3305</t>
+  </si>
+  <si>
+    <t>0000R00003305</t>
+  </si>
+  <si>
+    <t>3429877</t>
+  </si>
+  <si>
+    <t>9181;LOTE3305;20211129;DESC LOTE3305;LOTE3305;N;LOTE3305;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000003305;FNET;FNET;02;ZRET;20200408;;1800000122;20200408;08:00;16:00;20000;Remito electrónico Test;;;9181;66;C/U;LOTE3305;;;;;0000-00003305;3305;20200408;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200408002C001CLIENTESAPNROOC032202004089181              22           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202004080002073900PEDIDO                                                                          9181              22       139                         02        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD9181  133198CLIENTESAPC00120200408NROOC1  22     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    9181              22     816 0  011   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3429887 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3429897 </t>
+  </si>
+  <si>
+    <t>LOTE3309</t>
+  </si>
+  <si>
+    <t>3309</t>
+  </si>
+  <si>
+    <t>0000R00003309</t>
+  </si>
+  <si>
+    <t>3429919</t>
+  </si>
+  <si>
+    <t>9181;LOTE3309;20211129;DESC LOTE3309;LOTE3309;N;LOTE3309;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000003309;FNET;FNET;02;ZRET;20200408;;1800000122;20200408;08:00;16:00;20000;Remito electrónico Test;;;9181;66;C/U;LOTE3309;;;;;0000-00003309;3309;20200408;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3429929 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3429939 </t>
+  </si>
+  <si>
+    <t>LOTE3313</t>
+  </si>
+  <si>
+    <t>3313</t>
+  </si>
+  <si>
+    <t>0000R00003313</t>
+  </si>
+  <si>
+    <t>3429961</t>
+  </si>
+  <si>
+    <t>9181;LOTE3313;20211129;DESC LOTE3313;LOTE3313;N;LOTE3313;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000003313;FNET;FNET;02;ZRET;20200408;;1800000122;20200408;08:00;16:00;20000;Remito electrónico Test;;;9181;66;C/U;LOTE3313;;;;;0000-00003313;3313;20200408;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3429971 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3429981 </t>
+  </si>
+  <si>
+    <t>0001132083</t>
+  </si>
+  <si>
+    <t>0001132090</t>
+  </si>
+  <si>
+    <t>0001132088</t>
+  </si>
+  <si>
+    <t>0001132084</t>
+  </si>
+  <si>
+    <t>0001132092</t>
+  </si>
+  <si>
+    <t>0001132091</t>
+  </si>
+  <si>
+    <t>0001132109</t>
+  </si>
+  <si>
+    <t>0001132103</t>
+  </si>
+  <si>
+    <t>0001132096</t>
+  </si>
+  <si>
+    <t>0001132114</t>
+  </si>
+  <si>
+    <t>0001132101</t>
+  </si>
+  <si>
+    <t>0001132104</t>
+  </si>
+  <si>
+    <t>0001132111</t>
+  </si>
+  <si>
+    <t>0001132097</t>
+  </si>
+  <si>
+    <t>0001132100</t>
+  </si>
+  <si>
+    <t>0001132110</t>
+  </si>
+  <si>
+    <t>0001132107</t>
+  </si>
+  <si>
+    <t>0001132108</t>
+  </si>
+  <si>
+    <t>05000000003293</t>
+  </si>
+  <si>
+    <t>4000007361</t>
+  </si>
+  <si>
+    <t>05000000003297</t>
+  </si>
+  <si>
+    <t>4000007363</t>
+  </si>
+  <si>
+    <t>05000000003301</t>
+  </si>
+  <si>
+    <t>4000007354</t>
+  </si>
+  <si>
+    <t>02000000003305</t>
+  </si>
+  <si>
+    <t>4000007356</t>
+  </si>
+  <si>
+    <t>02000000003309</t>
+  </si>
+  <si>
+    <t>4000007358</t>
+  </si>
+  <si>
+    <t>02000000003313</t>
+  </si>
+  <si>
+    <t>4000007360</t>
+  </si>
+  <si>
+    <t>09.04.2020</t>
+  </si>
+  <si>
+    <t>LOTE3325</t>
+  </si>
+  <si>
+    <t>20200409</t>
+  </si>
+  <si>
+    <t>20211130</t>
+  </si>
+  <si>
+    <t>3325</t>
+  </si>
+  <si>
+    <t>0000R00003325</t>
+  </si>
+  <si>
+    <t>20200209</t>
+  </si>
+  <si>
+    <t>3430087</t>
+  </si>
+  <si>
+    <t>1572;LOTE3325;20211130;DESC LOTE3325;LOTE3325;N;LOTE3325;;AR;;;;;;S;1;S;210;20181103;F;N;</t>
+  </si>
+  <si>
+    <t>05000000003325;FNET;FNET;05;ZRET;20200409;;1800000042;20200409;08:00;16:00;20000;Remito electrónico Test;;;1572;60;C/U;LOTE3325;;;;;0000-00003325;3325;20200409;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200409002C001CLIENTESAPNROOC032202004091572              20           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202004090002073900PEDIDO                                                                          1572              20       139                         05        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD1572  133198CLIENTESAPC00120200409NROOC1  20     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1572              20     816 0  011   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3430097 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3430107 </t>
+  </si>
+  <si>
+    <t>LOTE3329</t>
+  </si>
+  <si>
+    <t>3329</t>
+  </si>
+  <si>
+    <t>0000R00003329</t>
+  </si>
+  <si>
+    <t>3430129</t>
+  </si>
+  <si>
+    <t>1572;LOTE3329;20211130;DESC LOTE3329;LOTE3329;N;LOTE3329;;AR;;;;;;S;1;S;210;20181103;F;N;</t>
+  </si>
+  <si>
+    <t>05000000003329;FNET;FNET;05;ZRET;20200409;;1800000042;20200409;08:00;16:00;20000;Remito electrónico Test;;;1572;60;C/U;LOTE3329;;;;;0000-00003329;3329;20200409;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3430139 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3430149 </t>
+  </si>
+  <si>
+    <t>LOTE3333</t>
+  </si>
+  <si>
+    <t>3333</t>
+  </si>
+  <si>
+    <t>0000R00003333</t>
+  </si>
+  <si>
+    <t>3430171</t>
+  </si>
+  <si>
+    <t>1572;LOTE3333;20211130;DESC LOTE3333;LOTE3333;N;LOTE3333;;AR;;;;;;S;1;S;210;20181103;F;N;</t>
+  </si>
+  <si>
+    <t>05000000003333;FNET;FNET;05;ZRET;20200409;;1800000042;20200409;08:00;16:00;20000;Remito electrónico Test;;;1572;60;C/U;LOTE3333;;;;;0000-00003333;3333;20200409;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3430181 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3430191 </t>
+  </si>
+  <si>
+    <t>LOTE3337</t>
+  </si>
+  <si>
+    <t>3337</t>
+  </si>
+  <si>
+    <t>0000R00003337</t>
+  </si>
+  <si>
+    <t>3430213</t>
+  </si>
+  <si>
+    <t>9181;LOTE3337;20211130;DESC LOTE3337;LOTE3337;N;LOTE3337;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000003337;FNET;FNET;02;ZRET;20200409;;1800000122;20200409;08:00;16:00;20000;Remito electrónico Test;;;9181;66;C/U;LOTE3337;;;;;0000-00003337;3337;20200409;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200409002C001CLIENTESAPNROOC032202004099181              22           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202004090002073900PEDIDO                                                                          9181              22       139                         02        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD9181  133198CLIENTESAPC00120200409NROOC1  22     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    9181              22     816 0  011   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3430223 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3430233 </t>
+  </si>
+  <si>
+    <t>LOTE3341</t>
+  </si>
+  <si>
+    <t>3341</t>
+  </si>
+  <si>
+    <t>0000R00003341</t>
+  </si>
+  <si>
+    <t>3430255</t>
+  </si>
+  <si>
+    <t>9181;LOTE3341;20211130;DESC LOTE3341;LOTE3341;N;LOTE3341;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000003341;FNET;FNET;02;ZRET;20200409;;1800000122;20200409;08:00;16:00;20000;Remito electrónico Test;;;9181;66;C/U;LOTE3341;;;;;0000-00003341;3341;20200409;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3430265 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3430275 </t>
+  </si>
+  <si>
+    <t>LOTE3345</t>
+  </si>
+  <si>
+    <t>3345</t>
+  </si>
+  <si>
+    <t>0000R00003345</t>
+  </si>
+  <si>
+    <t>3430297</t>
+  </si>
+  <si>
+    <t>9181;LOTE3345;20211130;DESC LOTE3345;LOTE3345;N;LOTE3345;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000003345;FNET;FNET;02;ZRET;20200409;;1800000122;20200409;08:00;16:00;20000;Remito electrónico Test;;;9181;66;C/U;LOTE3345;;;;;0000-00003345;3345;20200409;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3430307 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3430317 </t>
+  </si>
+  <si>
+    <t>0001132148</t>
+  </si>
+  <si>
+    <t>0001132145</t>
+  </si>
+  <si>
+    <t>0001132144</t>
+  </si>
+  <si>
+    <t>0001132155</t>
+  </si>
+  <si>
+    <t>0001132146</t>
+  </si>
+  <si>
+    <t>0001132143</t>
+  </si>
+  <si>
+    <t>0001132150</t>
+  </si>
+  <si>
+    <t>0001132163</t>
+  </si>
+  <si>
+    <t>0001132158</t>
+  </si>
+  <si>
+    <t>0001132154</t>
+  </si>
+  <si>
+    <t>0001132167</t>
+  </si>
+  <si>
+    <t>0001132162</t>
+  </si>
+  <si>
+    <t>0001132156</t>
+  </si>
+  <si>
+    <t>0001132172</t>
+  </si>
+  <si>
+    <t>0001132169</t>
+  </si>
+  <si>
+    <t>0001132174</t>
+  </si>
+  <si>
+    <t>0001132164</t>
+  </si>
+  <si>
+    <t>0001132168</t>
+  </si>
+  <si>
+    <t>05000000003325</t>
+  </si>
+  <si>
+    <t>4000007371</t>
+  </si>
+  <si>
+    <t>05000000003329</t>
+  </si>
+  <si>
+    <t>4000007373</t>
+  </si>
+  <si>
+    <t>05000000003333</t>
+  </si>
+  <si>
+    <t>4000007379</t>
+  </si>
+  <si>
+    <t>02000000003337</t>
+  </si>
+  <si>
+    <t>4000007374</t>
+  </si>
+  <si>
+    <t>02000000003341</t>
+  </si>
+  <si>
+    <t>4000007375</t>
+  </si>
+  <si>
+    <t>02000000003345</t>
+  </si>
+  <si>
+    <t>4000007377</t>
+  </si>
+  <si>
+    <t>80872248</t>
+  </si>
+  <si>
+    <t>80872249</t>
+  </si>
+  <si>
+    <t>80872250</t>
+  </si>
+  <si>
+    <t>80872251</t>
+  </si>
+  <si>
+    <t>11.04.2020</t>
+  </si>
+  <si>
+    <t>04:42</t>
+  </si>
+  <si>
+    <t>LOTE3363</t>
+  </si>
+  <si>
+    <t>20200411</t>
+  </si>
+  <si>
+    <t>20211202</t>
+  </si>
+  <si>
+    <t>3363</t>
+  </si>
+  <si>
+    <t>0000R00003363</t>
+  </si>
+  <si>
+    <t>20200211</t>
+  </si>
+  <si>
+    <t>3430482</t>
+  </si>
+  <si>
+    <t>1572;LOTE3363;20211202;DESC LOTE3363;LOTE3363;N;LOTE3363;;AR;;;;;;S;1;S;210;20181103;F;N;</t>
+  </si>
+  <si>
+    <t>05000000003363;FNET;FNET;05;ZRET;20200411;;1800000042;20200411;08:00;16:00;20000;Remito electrónico Test;;;1572;60;C/U;LOTE3363;;;;;0000-00003363;3363;20200411;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200411002C001CLIENTESAPNROOC032202004111572              20           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202004110002073900PEDIDO                                                                          1572              20       139                         05        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD1572  133198CLIENTESAPC00120200411NROOC1  20     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1572              20     816 0  011   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3430492 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3430502 </t>
+  </si>
+  <si>
+    <t>LOTE3367</t>
+  </si>
+  <si>
+    <t>3367</t>
+  </si>
+  <si>
+    <t>0000R00003367</t>
+  </si>
+  <si>
+    <t>3430524</t>
+  </si>
+  <si>
+    <t>1572;LOTE3367;20211202;DESC LOTE3367;LOTE3367;N;LOTE3367;;AR;;;;;;S;1;S;210;20181103;F;N;</t>
+  </si>
+  <si>
+    <t>05000000003367;FNET;FNET;05;ZRET;20200411;;1800000042;20200411;08:00;16:00;20000;Remito electrónico Test;;;1572;60;C/U;LOTE3367;;;;;0000-00003367;3367;20200411;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3430534 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3430544 </t>
+  </si>
+  <si>
+    <t>LOTE3371</t>
+  </si>
+  <si>
+    <t>3371</t>
+  </si>
+  <si>
+    <t>0000R00003371</t>
+  </si>
+  <si>
+    <t>3430566</t>
+  </si>
+  <si>
+    <t>1572;LOTE3371;20211202;DESC LOTE3371;LOTE3371;N;LOTE3371;;AR;;;;;;S;1;S;210;20181103;F;N;</t>
+  </si>
+  <si>
+    <t>05000000003371;FNET;FNET;05;ZRET;20200411;;1800000042;20200411;08:00;16:00;20000;Remito electrónico Test;;;1572;60;C/U;LOTE3371;;;;;0000-00003371;3371;20200411;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3430576 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3430586 </t>
+  </si>
+  <si>
+    <t>LOTE3375</t>
+  </si>
+  <si>
+    <t>3375</t>
+  </si>
+  <si>
+    <t>0000R00003375</t>
+  </si>
+  <si>
+    <t>3430608</t>
+  </si>
+  <si>
+    <t>9181;LOTE3375;20211202;DESC LOTE3375;LOTE3375;N;LOTE3375;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000003375;FNET;FNET;02;ZRET;20200411;;1800000122;20200411;08:00;16:00;20000;Remito electrónico Test;;;9181;66;C/U;LOTE3375;;;;;0000-00003375;3375;20200411;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200411002C001CLIENTESAPNROOC032202004119181              22           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202004110002073900PEDIDO                                                                          9181              22       139                         02        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD9181  133198CLIENTESAPC00120200411NROOC1  22     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    9181              22     816 0  011   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3430618 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3430628 </t>
+  </si>
+  <si>
+    <t>LOTE3379</t>
+  </si>
+  <si>
+    <t>3379</t>
+  </si>
+  <si>
+    <t>0000R00003379</t>
+  </si>
+  <si>
+    <t>3430650</t>
+  </si>
+  <si>
+    <t>9181;LOTE3379;20211202;DESC LOTE3379;LOTE3379;N;LOTE3379;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000003379;FNET;FNET;02;ZRET;20200411;;1800000122;20200411;08:00;16:00;20000;Remito electrónico Test;;;9181;66;C/U;LOTE3379;;;;;0000-00003379;3379;20200411;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3430660 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3430670 </t>
+  </si>
+  <si>
+    <t>LOTE3383</t>
+  </si>
+  <si>
+    <t>3383</t>
+  </si>
+  <si>
+    <t>0000R00003383</t>
+  </si>
+  <si>
+    <t>3430692</t>
+  </si>
+  <si>
+    <t>9181;LOTE3383;20211202;DESC LOTE3383;LOTE3383;N;LOTE3383;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000003383;FNET;FNET;02;ZRET;20200411;;1800000122;20200411;08:00;16:00;20000;Remito electrónico Test;;;9181;66;C/U;LOTE3383;;;;;0000-00003383;3383;20200411;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3430702 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3430712 </t>
+  </si>
+  <si>
+    <t>0001132200</t>
+  </si>
+  <si>
+    <t>0001132195</t>
+  </si>
+  <si>
+    <t>0001132196</t>
+  </si>
+  <si>
+    <t>0001132208</t>
+  </si>
+  <si>
+    <t>0001132197</t>
+  </si>
+  <si>
+    <t>0001132194</t>
+  </si>
+  <si>
+    <t>0001132203</t>
+  </si>
+  <si>
+    <t>0001132212</t>
+  </si>
+  <si>
+    <t>0001132210</t>
+  </si>
+  <si>
+    <t>0001132207</t>
+  </si>
+  <si>
+    <t>0001132220</t>
+  </si>
+  <si>
+    <t>0001132223</t>
+  </si>
+  <si>
+    <t>0001132201</t>
+  </si>
+  <si>
+    <t>0001132214</t>
+  </si>
+  <si>
+    <t>0001132221</t>
+  </si>
+  <si>
+    <t>0001132225</t>
+  </si>
+  <si>
+    <t>0001132217</t>
+  </si>
+  <si>
+    <t>0001132216</t>
+  </si>
+  <si>
+    <t>05000000003363</t>
+  </si>
+  <si>
+    <t>4000007389</t>
+  </si>
+  <si>
+    <t>05000000003367</t>
+  </si>
+  <si>
+    <t>4000007391</t>
+  </si>
+  <si>
+    <t>05000000003371</t>
+  </si>
+  <si>
+    <t>4000007396</t>
+  </si>
+  <si>
+    <t>02000000003375</t>
+  </si>
+  <si>
+    <t>4000007398</t>
+  </si>
+  <si>
+    <t>02000000003379</t>
+  </si>
+  <si>
+    <t>4000007392</t>
+  </si>
+  <si>
+    <t>02000000003383</t>
+  </si>
+  <si>
+    <t>4000007394</t>
+  </si>
+  <si>
+    <t>12.04.2020</t>
+  </si>
+  <si>
+    <t>LOTE3395</t>
+  </si>
+  <si>
+    <t>20200412</t>
+  </si>
+  <si>
+    <t>20211203</t>
+  </si>
+  <si>
+    <t>3395</t>
+  </si>
+  <si>
+    <t>0000R00003395</t>
+  </si>
+  <si>
+    <t>20200212</t>
+  </si>
+  <si>
+    <t>3430818</t>
+  </si>
+  <si>
+    <t>1572;LOTE3395;20211203;DESC LOTE3395;LOTE3395;N;LOTE3395;;AR;;;;;;S;1;S;210;20181103;F;N;</t>
+  </si>
+  <si>
+    <t>05000000003395;FNET;FNET;05;ZRET;20200412;;1800000042;20200412;08:00;16:00;20000;Remito electrónico Test;;;1572;60;C/U;LOTE3395;;;;;0000-00003395;3395;20200412;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200412002C001CLIENTESAPNROOC032202004121572              20           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202004120002073900PEDIDO                                                                          1572              20       139                         05        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD1572  133198CLIENTESAPC00120200412NROOC1  20     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1572              20     816 0  011   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3430828 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3430838 </t>
+  </si>
+  <si>
+    <t>LOTE3399</t>
+  </si>
+  <si>
+    <t>3399</t>
+  </si>
+  <si>
+    <t>0000R00003399</t>
+  </si>
+  <si>
+    <t>3430860</t>
+  </si>
+  <si>
+    <t>1572;LOTE3399;20211203;DESC LOTE3399;LOTE3399;N;LOTE3399;;AR;;;;;;S;1;S;210;20181103;F;N;</t>
+  </si>
+  <si>
+    <t>05000000003399;FNET;FNET;05;ZRET;20200412;;1800000042;20200412;08:00;16:00;20000;Remito electrónico Test;;;1572;60;C/U;LOTE3399;;;;;0000-00003399;3399;20200412;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3430870 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3430880 </t>
+  </si>
+  <si>
+    <t>LOTE3403</t>
+  </si>
+  <si>
+    <t>3403</t>
+  </si>
+  <si>
+    <t>0000R00003403</t>
+  </si>
+  <si>
+    <t>3430902</t>
+  </si>
+  <si>
+    <t>1572;LOTE3403;20211203;DESC LOTE3403;LOTE3403;N;LOTE3403;;AR;;;;;;S;1;S;210;20181103;F;N;</t>
+  </si>
+  <si>
+    <t>05000000003403;FNET;FNET;05;ZRET;20200412;;1800000042;20200412;08:00;16:00;20000;Remito electrónico Test;;;1572;60;C/U;LOTE3403;;;;;0000-00003403;3403;20200412;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3430912 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3430922 </t>
+  </si>
+  <si>
+    <t>LOTE3407</t>
+  </si>
+  <si>
+    <t>3407</t>
+  </si>
+  <si>
+    <t>0000R00003407</t>
+  </si>
+  <si>
+    <t>3430944</t>
+  </si>
+  <si>
+    <t>9181;LOTE3407;20211203;DESC LOTE3407;LOTE3407;N;LOTE3407;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000003407;FNET;FNET;02;ZRET;20200412;;1800000122;20200412;08:00;16:00;20000;Remito electrónico Test;;;9181;66;C/U;LOTE3407;;;;;0000-00003407;3407;20200412;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200412002C001CLIENTESAPNROOC032202004129181              22           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202004120002073900PEDIDO                                                                          9181              22       139                         02        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD9181  133198CLIENTESAPC00120200412NROOC1  22     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    9181              22     816 0  011   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3430954 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3430964 </t>
+  </si>
+  <si>
+    <t>LOTE3411</t>
+  </si>
+  <si>
+    <t>3411</t>
+  </si>
+  <si>
+    <t>0000R00003411</t>
+  </si>
+  <si>
+    <t>3430986</t>
+  </si>
+  <si>
+    <t>9181;LOTE3411;20211203;DESC LOTE3411;LOTE3411;N;LOTE3411;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000003411;FNET;FNET;02;ZRET;20200412;;1800000122;20200412;08:00;16:00;20000;Remito electrónico Test;;;9181;66;C/U;LOTE3411;;;;;0000-00003411;3411;20200412;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3430996 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3431006 </t>
+  </si>
+  <si>
+    <t>LOTE3415</t>
+  </si>
+  <si>
+    <t>3415</t>
+  </si>
+  <si>
+    <t>0000R00003415</t>
+  </si>
+  <si>
+    <t>3431028</t>
+  </si>
+  <si>
+    <t>9181;LOTE3415;20211203;DESC LOTE3415;LOTE3415;N;LOTE3415;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000003415;FNET;FNET;02;ZRET;20200412;;1800000122;20200412;08:00;16:00;20000;Remito electrónico Test;;;9181;66;C/U;LOTE3415;;;;;0000-00003415;3415;20200412;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3431038 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3431048 </t>
+  </si>
+  <si>
+    <t>0001132247</t>
+  </si>
+  <si>
+    <t>0001132243</t>
+  </si>
+  <si>
+    <t>0001132241</t>
+  </si>
+  <si>
+    <t>0001132248</t>
+  </si>
+  <si>
+    <t>0001132244</t>
+  </si>
+  <si>
+    <t>0001132246</t>
+  </si>
+  <si>
+    <t>0001132255</t>
+  </si>
+  <si>
+    <t>0001132267</t>
+  </si>
+  <si>
+    <t>0001132256</t>
+  </si>
+  <si>
+    <t>0001132254</t>
+  </si>
+  <si>
+    <t>0001132268</t>
+  </si>
+  <si>
+    <t>0001132259</t>
+  </si>
+  <si>
+    <t>0001132252</t>
+  </si>
+  <si>
+    <t>0001132263</t>
+  </si>
+  <si>
+    <t>0001132261</t>
+  </si>
+  <si>
+    <t>0001132273</t>
+  </si>
+  <si>
+    <t>0001132270</t>
+  </si>
+  <si>
+    <t>0001132265</t>
+  </si>
+  <si>
+    <t>05000000003395</t>
+  </si>
+  <si>
+    <t>4000007405</t>
+  </si>
+  <si>
+    <t>05000000003399</t>
+  </si>
+  <si>
+    <t>4000007407</t>
+  </si>
+  <si>
+    <t>05000000003403</t>
+  </si>
+  <si>
+    <t>4000007414</t>
+  </si>
+  <si>
+    <t>02000000003407</t>
+  </si>
+  <si>
+    <t>4000007412</t>
+  </si>
+  <si>
+    <t>02000000003411</t>
+  </si>
+  <si>
+    <t>4000007409</t>
+  </si>
+  <si>
+    <t>02000000003415</t>
+  </si>
+  <si>
+    <t>4000007411</t>
+  </si>
+  <si>
+    <t>13.04.2020</t>
+  </si>
+  <si>
+    <t>LOTE3427</t>
+  </si>
+  <si>
+    <t>20200413</t>
+  </si>
+  <si>
+    <t>20211204</t>
+  </si>
+  <si>
+    <t>3427</t>
+  </si>
+  <si>
+    <t>0000R00003427</t>
+  </si>
+  <si>
+    <t>20200213</t>
+  </si>
+  <si>
+    <t>3431154</t>
+  </si>
+  <si>
+    <t>1572;LOTE3427;20211204;DESC LOTE3427;LOTE3427;N;LOTE3427;;AR;;;;;;S;1;S;210;20181103;F;N;</t>
+  </si>
+  <si>
+    <t>05000000003427;FNET;FNET;05;ZRET;20200413;;1800000042;20200413;08:00;16:00;20000;Remito electrónico Test;;;1572;60;C/U;LOTE3427;;;;;0000-00003427;3427;20200413;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200413002C001CLIENTESAPNROOC032202004131572              20           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202004130002073900PEDIDO                                                                          1572              20       139                         05        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD1572  133198CLIENTESAPC00120200413NROOC1  20     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1572              20     816 0  011   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3431164 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3431174 </t>
+  </si>
+  <si>
+    <t>LOTE3431</t>
+  </si>
+  <si>
+    <t>3431</t>
+  </si>
+  <si>
+    <t>0000R00003431</t>
+  </si>
+  <si>
+    <t>3431196</t>
+  </si>
+  <si>
+    <t>1572;LOTE3431;20211204;DESC LOTE3431;LOTE3431;N;LOTE3431;;AR;;;;;;S;1;S;210;20181103;F;N;</t>
+  </si>
+  <si>
+    <t>05000000003431;FNET;FNET;05;ZRET;20200413;;1800000042;20200413;08:00;16:00;20000;Remito electrónico Test;;;1572;60;C/U;LOTE3431;;;;;0000-00003431;3431;20200413;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3431206 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3431216 </t>
+  </si>
+  <si>
+    <t>LOTE3435</t>
+  </si>
+  <si>
+    <t>3435</t>
+  </si>
+  <si>
+    <t>0000R00003435</t>
+  </si>
+  <si>
+    <t>3431238</t>
+  </si>
+  <si>
+    <t>1572;LOTE3435;20211204;DESC LOTE3435;LOTE3435;N;LOTE3435;;AR;;;;;;S;1;S;210;20181103;F;N;</t>
+  </si>
+  <si>
+    <t>05000000003435;FNET;FNET;05;ZRET;20200413;;1800000042;20200413;08:00;16:00;20000;Remito electrónico Test;;;1572;60;C/U;LOTE3435;;;;;0000-00003435;3435;20200413;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3431248 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3431258 </t>
+  </si>
+  <si>
+    <t>LOTE3439</t>
+  </si>
+  <si>
+    <t>3439</t>
+  </si>
+  <si>
+    <t>0000R00003439</t>
+  </si>
+  <si>
+    <t>3431280</t>
+  </si>
+  <si>
+    <t>9181;LOTE3439;20211204;DESC LOTE3439;LOTE3439;N;LOTE3439;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000003439;FNET;FNET;02;ZRET;20200413;;1800000122;20200413;08:00;16:00;20000;Remito electrónico Test;;;9181;66;C/U;LOTE3439;;;;;0000-00003439;3439;20200413;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200413002C001CLIENTESAPNROOC032202004139181              22           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202004130002073900PEDIDO                                                                          9181              22       139                         02        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD9181  133198CLIENTESAPC00120200413NROOC1  22     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    9181              22     816 0  011   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3431290 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3431300 </t>
+  </si>
+  <si>
+    <t>LOTE3443</t>
+  </si>
+  <si>
+    <t>3443</t>
+  </si>
+  <si>
+    <t>0000R00003443</t>
+  </si>
+  <si>
+    <t>3431322</t>
+  </si>
+  <si>
+    <t>9181;LOTE3443;20211204;DESC LOTE3443;LOTE3443;N;LOTE3443;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000003443;FNET;FNET;02;ZRET;20200413;;1800000122;20200413;08:00;16:00;20000;Remito electrónico Test;;;9181;66;C/U;LOTE3443;;;;;0000-00003443;3443;20200413;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3431332 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3431342 </t>
+  </si>
+  <si>
+    <t>LOTE3447</t>
+  </si>
+  <si>
+    <t>3447</t>
+  </si>
+  <si>
+    <t>0000R00003447</t>
+  </si>
+  <si>
+    <t>3431364</t>
+  </si>
+  <si>
+    <t>9181;LOTE3447;20211204;DESC LOTE3447;LOTE3447;N;LOTE3447;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000003447;FNET;FNET;02;ZRET;20200413;;1800000122;20200413;08:00;16:00;20000;Remito electrónico Test;;;9181;66;C/U;LOTE3447;;;;;0000-00003447;3447;20200413;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3431374 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3431384 </t>
+  </si>
+  <si>
+    <t>0001132312</t>
+  </si>
+  <si>
+    <t>0001132293</t>
+  </si>
+  <si>
+    <t>0001132294</t>
+  </si>
+  <si>
+    <t>0001132319</t>
+  </si>
+  <si>
+    <t>0001132298</t>
+  </si>
+  <si>
+    <t>0001132296</t>
+  </si>
+  <si>
+    <t>0001132315</t>
+  </si>
+  <si>
+    <t>0001132305</t>
+  </si>
+  <si>
+    <t>0001132303</t>
+  </si>
+  <si>
+    <t>0001132323</t>
+  </si>
+  <si>
+    <t>0001132302</t>
+  </si>
+  <si>
+    <t>0001132301</t>
+  </si>
+  <si>
+    <t>0001132317</t>
+  </si>
+  <si>
+    <t>0001132309</t>
+  </si>
+  <si>
+    <t>0001132311</t>
+  </si>
+  <si>
+    <t>0001132324</t>
+  </si>
+  <si>
+    <t>0001132318</t>
+  </si>
+  <si>
+    <t>0001132325</t>
+  </si>
+  <si>
+    <t>05000000003427</t>
+  </si>
+  <si>
+    <t>4000007421</t>
+  </si>
+  <si>
+    <t>05000000003431</t>
+  </si>
+  <si>
+    <t>4000007423</t>
+  </si>
+  <si>
+    <t>05000000003435</t>
+  </si>
+  <si>
+    <t>4000007425</t>
+  </si>
+  <si>
+    <t>02000000003439</t>
+  </si>
+  <si>
+    <t>4000007427</t>
+  </si>
+  <si>
+    <t>02000000003443</t>
+  </si>
+  <si>
+    <t>02000000003447</t>
+  </si>
+  <si>
+    <t>4000007430</t>
+  </si>
+  <si>
+    <t>14.04.2020</t>
+  </si>
+  <si>
+    <t>LOTE3601</t>
+  </si>
+  <si>
+    <t>20200414</t>
+  </si>
+  <si>
+    <t>20211205</t>
+  </si>
+  <si>
+    <t>3601</t>
+  </si>
+  <si>
+    <t>0000R00003601</t>
+  </si>
+  <si>
+    <t>20200214</t>
+  </si>
+  <si>
+    <t>3432981</t>
+  </si>
+  <si>
+    <t>1572;LOTE3601;20211205;DESC LOTE3601;LOTE3601;N;LOTE3601;;AR;;;;;;S;1;S;210;20181103;F;N;</t>
+  </si>
+  <si>
+    <t>05000000003601;FNET;FNET;05;ZRET;20200414;;1800000042;20200414;08:00;16:00;20000;Remito electrónico Test;;;1572;60;C/U;LOTE3601;;;;;0000-00003601;3601;20200414;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200414002C001CLIENTESAPNROOC032202004141572              20           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202004140002073900PEDIDO                                                                          1572              20       139                         05        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD1572  133198CLIENTESAPC00120200414NROOC1  20     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1572              20     816 0  011   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3432991 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3433001 </t>
+  </si>
+  <si>
+    <t>LOTE3605</t>
+  </si>
+  <si>
+    <t>3605</t>
+  </si>
+  <si>
+    <t>0000R00003605</t>
+  </si>
+  <si>
+    <t>3433023</t>
+  </si>
+  <si>
+    <t>1572;LOTE3605;20211205;DESC LOTE3605;LOTE3605;N;LOTE3605;;AR;;;;;;S;1;S;210;20181103;F;N;</t>
+  </si>
+  <si>
+    <t>05000000003605;FNET;FNET;05;ZRET;20200414;;1800000042;20200414;08:00;16:00;20000;Remito electrónico Test;;;1572;60;C/U;LOTE3605;;;;;0000-00003605;3605;20200414;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3433033 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3433043 </t>
+  </si>
+  <si>
+    <t>LOTE3609</t>
+  </si>
+  <si>
+    <t>3609</t>
+  </si>
+  <si>
+    <t>0000R00003609</t>
+  </si>
+  <si>
+    <t>3433065</t>
+  </si>
+  <si>
+    <t>1572;LOTE3609;20211205;DESC LOTE3609;LOTE3609;N;LOTE3609;;AR;;;;;;S;1;S;210;20181103;F;N;</t>
+  </si>
+  <si>
+    <t>05000000003609;FNET;FNET;05;ZRET;20200414;;1800000042;20200414;08:00;16:00;20000;Remito electrónico Test;;;1572;60;C/U;LOTE3609;;;;;0000-00003609;3609;20200414;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3433075 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3433085 </t>
+  </si>
+  <si>
+    <t>LOTE3613</t>
+  </si>
+  <si>
+    <t>3613</t>
+  </si>
+  <si>
+    <t>0000R00003613</t>
+  </si>
+  <si>
+    <t>3433107</t>
+  </si>
+  <si>
+    <t>9181;LOTE3613;20211205;DESC LOTE3613;LOTE3613;N;LOTE3613;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000003613;FNET;FNET;02;ZRET;20200414;;1800000122;20200414;08:00;16:00;20000;Remito electrónico Test;;;9181;66;C/U;LOTE3613;;;;;0000-00003613;3613;20200414;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200414002C001CLIENTESAPNROOC032202004149181              22           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202004140002073900PEDIDO                                                                          9181              22       139                         02        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD9181  133198CLIENTESAPC00120200414NROOC1  22     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    9181              22     816 0  011   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3433117 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3433127 </t>
+  </si>
+  <si>
+    <t>LOTE3617</t>
+  </si>
+  <si>
+    <t>3617</t>
+  </si>
+  <si>
+    <t>0000R00003617</t>
+  </si>
+  <si>
+    <t>3433149</t>
+  </si>
+  <si>
+    <t>9181;LOTE3617;20211205;DESC LOTE3617;LOTE3617;N;LOTE3617;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000003617;FNET;FNET;02;ZRET;20200414;;1800000122;20200414;08:00;16:00;20000;Remito electrónico Test;;;9181;66;C/U;LOTE3617;;;;;0000-00003617;3617;20200414;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3433159 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3433169 </t>
+  </si>
+  <si>
+    <t>LOTE3621</t>
+  </si>
+  <si>
+    <t>3621</t>
+  </si>
+  <si>
+    <t>0000R00003621</t>
+  </si>
+  <si>
+    <t>3433191</t>
+  </si>
+  <si>
+    <t>9181;LOTE3621;20211205;DESC LOTE3621;LOTE3621;N;LOTE3621;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000003621;FNET;FNET;02;ZRET;20200414;;1800000122;20200414;08:00;16:00;20000;Remito electrónico Test;;;9181;66;C/U;LOTE3621;;;;;0000-00003621;3621;20200414;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3433201 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3433211 </t>
+  </si>
+  <si>
+    <t>0001132561</t>
+  </si>
+  <si>
+    <t>0001132556</t>
+  </si>
+  <si>
+    <t>0001132558</t>
+  </si>
+  <si>
+    <t>0001132566</t>
+  </si>
+  <si>
+    <t>0001132570</t>
+  </si>
+  <si>
+    <t>0001132559</t>
+  </si>
+  <si>
+    <t>0001132565</t>
+  </si>
+  <si>
+    <t>0001132578</t>
+  </si>
+  <si>
+    <t>0001132583</t>
+  </si>
+  <si>
+    <t>0001132569</t>
+  </si>
+  <si>
+    <t>0001132572</t>
+  </si>
+  <si>
+    <t>0001132584</t>
+  </si>
+  <si>
+    <t>0001132567</t>
+  </si>
+  <si>
+    <t>0001132575</t>
+  </si>
+  <si>
+    <t>0001132585</t>
+  </si>
+  <si>
+    <t>0001132588</t>
+  </si>
+  <si>
+    <t>0001132577</t>
+  </si>
+  <si>
+    <t>0001132586</t>
+  </si>
+  <si>
+    <t>05000000003601</t>
+  </si>
+  <si>
+    <t>4000007508</t>
+  </si>
+  <si>
+    <t>05000000003605</t>
+  </si>
+  <si>
+    <t>4000007515</t>
+  </si>
+  <si>
+    <t>05000000003609</t>
+  </si>
+  <si>
+    <t>4000007517</t>
+  </si>
+  <si>
+    <t>02000000003613</t>
+  </si>
+  <si>
+    <t>4000007514</t>
+  </si>
+  <si>
+    <t>02000000003617</t>
+  </si>
+  <si>
+    <t>4000007511</t>
+  </si>
+  <si>
+    <t>02000000003621</t>
+  </si>
+  <si>
+    <t>4000007513</t>
+  </si>
+  <si>
+    <t>15.04.2020</t>
+  </si>
+  <si>
+    <t>LOTE3637</t>
+  </si>
+  <si>
+    <t>20200415</t>
+  </si>
+  <si>
+    <t>20211206</t>
+  </si>
+  <si>
+    <t>3637</t>
+  </si>
+  <si>
+    <t>0000R00003637</t>
+  </si>
+  <si>
+    <t>20200215</t>
+  </si>
+  <si>
+    <t>3433357</t>
+  </si>
+  <si>
+    <t>1572;LOTE3637;20211206;DESC LOTE3637;LOTE3637;N;LOTE3637;;AR;;;;;;S;1;S;210;20181103;F;N;</t>
+  </si>
+  <si>
+    <t>05000000003637;FNET;FNET;05;ZRET;20200415;;1800000042;20200415;08:00;16:00;20000;Remito electrónico Test;;;1572;60;C/U;LOTE3637;;;;;0000-00003637;3637;20200415;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200415002C001CLIENTESAPNROOC032202004151572              20           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202004150002073900PEDIDO                                                                          1572              20       139                         05        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD1572  133198CLIENTESAPC00120200415NROOC1  20     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1572              20     816 0  011   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3433367 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3433377 </t>
+  </si>
+  <si>
+    <t>LOTE3641</t>
+  </si>
+  <si>
+    <t>3641</t>
+  </si>
+  <si>
+    <t>0000R00003641</t>
+  </si>
+  <si>
+    <t>3433399</t>
+  </si>
+  <si>
+    <t>1572;LOTE3641;20211206;DESC LOTE3641;LOTE3641;N;LOTE3641;;AR;;;;;;S;1;S;210;20181103;F;N;</t>
+  </si>
+  <si>
+    <t>05000000003641;FNET;FNET;05;ZRET;20200415;;1800000042;20200415;08:00;16:00;20000;Remito electrónico Test;;;1572;60;C/U;LOTE3641;;;;;0000-00003641;3641;20200415;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3433409 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3433419 </t>
+  </si>
+  <si>
+    <t>LOTE3645</t>
+  </si>
+  <si>
+    <t>3645</t>
+  </si>
+  <si>
+    <t>0000R00003645</t>
+  </si>
+  <si>
+    <t>3433441</t>
+  </si>
+  <si>
+    <t>1572;LOTE3645;20211206;DESC LOTE3645;LOTE3645;N;LOTE3645;;AR;;;;;;S;1;S;210;20181103;F;N;</t>
+  </si>
+  <si>
+    <t>05000000003645;FNET;FNET;05;ZRET;20200415;;1800000042;20200415;08:00;16:00;20000;Remito electrónico Test;;;1572;60;C/U;LOTE3645;;;;;0000-00003645;3645;20200415;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3433451 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3433461 </t>
+  </si>
+  <si>
+    <t>LOTE3649</t>
+  </si>
+  <si>
+    <t>3649</t>
+  </si>
+  <si>
+    <t>0000R00003649</t>
+  </si>
+  <si>
+    <t>3433483</t>
+  </si>
+  <si>
+    <t>9181;LOTE3649;20211206;DESC LOTE3649;LOTE3649;N;LOTE3649;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000003649;FNET;FNET;02;ZRET;20200415;;1800000122;20200415;08:00;16:00;20000;Remito electrónico Test;;;9181;66;C/U;LOTE3649;;;;;0000-00003649;3649;20200415;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200415002C001CLIENTESAPNROOC032202004159181              22           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202004150002073900PEDIDO                                                                          9181              22       139                         02        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD9181  133198CLIENTESAPC00120200415NROOC1  22     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    9181              22     816 0  011   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3433493 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3433503 </t>
+  </si>
+  <si>
+    <t>LOTE3653</t>
+  </si>
+  <si>
+    <t>3653</t>
+  </si>
+  <si>
+    <t>0000R00003653</t>
+  </si>
+  <si>
+    <t>3433525</t>
+  </si>
+  <si>
+    <t>9181;LOTE3653;20211206;DESC LOTE3653;LOTE3653;N;LOTE3653;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000003653;FNET;FNET;02;ZRET;20200415;;1800000122;20200415;08:00;16:00;20000;Remito electrónico Test;;;9181;66;C/U;LOTE3653;;;;;0000-00003653;3653;20200415;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3433535 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3433545 </t>
+  </si>
+  <si>
+    <t>LOTE3657</t>
+  </si>
+  <si>
+    <t>3657</t>
+  </si>
+  <si>
+    <t>0000R00003657</t>
+  </si>
+  <si>
+    <t>3433567</t>
+  </si>
+  <si>
+    <t>9181;LOTE3657;20211206;DESC LOTE3657;LOTE3657;N;LOTE3657;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000003657;FNET;FNET;02;ZRET;20200415;;1800000122;20200415;08:00;16:00;20000;Remito electrónico Test;;;9181;66;C/U;LOTE3657;;;;;0000-00003657;3657;20200415;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3433577 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3433587 </t>
+  </si>
+  <si>
+    <t>0001132650</t>
+  </si>
+  <si>
+    <t>0001132644</t>
+  </si>
+  <si>
+    <t>0001132646</t>
+  </si>
+  <si>
+    <t>0001132654</t>
+  </si>
+  <si>
+    <t>0001132648</t>
+  </si>
+  <si>
+    <t>0001132649</t>
+  </si>
+  <si>
+    <t>0001132652</t>
+  </si>
+  <si>
+    <t>0001132661</t>
+  </si>
+  <si>
+    <t>0001132673</t>
+  </si>
+  <si>
+    <t>0001132655</t>
+  </si>
+  <si>
+    <t>0001132665</t>
+  </si>
+  <si>
+    <t>0001132670</t>
+  </si>
+  <si>
+    <t>0001132658</t>
+  </si>
+  <si>
+    <t>0001132662</t>
+  </si>
+  <si>
+    <t>0001132666</t>
+  </si>
+  <si>
+    <t>0001132676</t>
+  </si>
+  <si>
+    <t>0001132672</t>
+  </si>
+  <si>
+    <t>0001132671</t>
+  </si>
+  <si>
+    <t>05000000003637</t>
+  </si>
+  <si>
+    <t>4000007526</t>
+  </si>
+  <si>
+    <t>05000000003641</t>
+  </si>
+  <si>
+    <t>4000007528</t>
+  </si>
+  <si>
+    <t>05000000003645</t>
+  </si>
+  <si>
+    <t>4000007535</t>
+  </si>
+  <si>
+    <t>02000000003649</t>
+  </si>
+  <si>
+    <t>4000007529</t>
+  </si>
+  <si>
+    <t>02000000003653</t>
+  </si>
+  <si>
+    <t>4000007531</t>
+  </si>
+  <si>
+    <t>02000000003657</t>
+  </si>
+  <si>
+    <t>4000007533</t>
+  </si>
+  <si>
+    <t>80872341</t>
+  </si>
+  <si>
+    <t>16.04.2020</t>
+  </si>
+  <si>
+    <t>LOTE3669</t>
+  </si>
+  <si>
+    <t>20200416</t>
+  </si>
+  <si>
+    <t>20211207</t>
+  </si>
+  <si>
+    <t>3669</t>
+  </si>
+  <si>
+    <t>0000R00003669</t>
+  </si>
+  <si>
+    <t>20200216</t>
+  </si>
+  <si>
+    <t>3433693</t>
+  </si>
+  <si>
+    <t>1572;LOTE3669;20211207;DESC LOTE3669;LOTE3669;N;LOTE3669;;AR;;;;;;S;1;S;210;20181103;F;N;</t>
+  </si>
+  <si>
+    <t>05000000003669;FNET;FNET;05;ZRET;20200416;;1800000042;20200416;08:00;16:00;20000;Remito electrónico Test;;;1572;60;C/U;LOTE3669;;;;;0000-00003669;3669;20200416;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200416002C001CLIENTESAPNROOC032202004161572              20           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202004160002073900PEDIDO                                                                          1572              20       139                         05        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD1572  133198CLIENTESAPC00120200416NROOC1  20     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1572              20     816 0  011   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3433703 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3433713 </t>
+  </si>
+  <si>
+    <t>LOTE3673</t>
+  </si>
+  <si>
+    <t>3673</t>
+  </si>
+  <si>
+    <t>0000R00003673</t>
+  </si>
+  <si>
+    <t>3433735</t>
+  </si>
+  <si>
+    <t>1572;LOTE3673;20211207;DESC LOTE3673;LOTE3673;N;LOTE3673;;AR;;;;;;S;1;S;210;20181103;F;N;</t>
+  </si>
+  <si>
+    <t>05000000003673;FNET;FNET;05;ZRET;20200416;;1800000042;20200416;08:00;16:00;20000;Remito electrónico Test;;;1572;60;C/U;LOTE3673;;;;;0000-00003673;3673;20200416;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3433745 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3433755 </t>
+  </si>
+  <si>
+    <t>LOTE3677</t>
+  </si>
+  <si>
+    <t>3677</t>
+  </si>
+  <si>
+    <t>0000R00003677</t>
+  </si>
+  <si>
+    <t>3433777</t>
+  </si>
+  <si>
+    <t>1572;LOTE3677;20211207;DESC LOTE3677;LOTE3677;N;LOTE3677;;AR;;;;;;S;1;S;210;20181103;F;N;</t>
+  </si>
+  <si>
+    <t>05000000003677;FNET;FNET;05;ZRET;20200416;;1800000042;20200416;08:00;16:00;20000;Remito electrónico Test;;;1572;60;C/U;LOTE3677;;;;;0000-00003677;3677;20200416;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3433787 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3433797 </t>
+  </si>
+  <si>
+    <t>LOTE3681</t>
+  </si>
+  <si>
+    <t>3681</t>
+  </si>
+  <si>
+    <t>0000R00003681</t>
+  </si>
+  <si>
+    <t>3433819</t>
+  </si>
+  <si>
+    <t>9181;LOTE3681;20211207;DESC LOTE3681;LOTE3681;N;LOTE3681;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000003681;FNET;FNET;02;ZRET;20200416;;1800000122;20200416;08:00;16:00;20000;Remito electrónico Test;;;9181;66;C/U;LOTE3681;;;;;0000-00003681;3681;20200416;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200416002C001CLIENTESAPNROOC032202004169181              22           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202004160002073900PEDIDO                                                                          9181              22       139                         02        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD9181  133198CLIENTESAPC00120200416NROOC1  22     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    9181              22     816 0  011   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3433829 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3433839 </t>
+  </si>
+  <si>
+    <t>LOTE3685</t>
+  </si>
+  <si>
+    <t>3685</t>
+  </si>
+  <si>
+    <t>0000R00003685</t>
+  </si>
+  <si>
+    <t>3433861</t>
+  </si>
+  <si>
+    <t>9181;LOTE3685;20211207;DESC LOTE3685;LOTE3685;N;LOTE3685;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000003685;FNET;FNET;02;ZRET;20200416;;1800000122;20200416;08:00;16:00;20000;Remito electrónico Test;;;9181;66;C/U;LOTE3685;;;;;0000-00003685;3685;20200416;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3433871 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3433881 </t>
+  </si>
+  <si>
+    <t>LOTE3689</t>
+  </si>
+  <si>
+    <t>3689</t>
+  </si>
+  <si>
+    <t>0000R00003689</t>
+  </si>
+  <si>
+    <t>3433903</t>
+  </si>
+  <si>
+    <t>9181;LOTE3689;20211207;DESC LOTE3689;LOTE3689;N;LOTE3689;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000003689;FNET;FNET;02;ZRET;20200416;;1800000122;20200416;08:00;16:00;20000;Remito electrónico Test;;;9181;66;C/U;LOTE3689;;;;;0000-00003689;3689;20200416;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3433913 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3433923 </t>
+  </si>
+  <si>
+    <t>0001132709</t>
+  </si>
+  <si>
+    <t>0001132704</t>
+  </si>
+  <si>
+    <t>0001132707</t>
+  </si>
+  <si>
+    <t>0001132713</t>
+  </si>
+  <si>
+    <t>0001132717</t>
+  </si>
+  <si>
+    <t>0001132708</t>
+  </si>
+  <si>
+    <t>0001132714</t>
+  </si>
+  <si>
+    <t>0001132721</t>
+  </si>
+  <si>
+    <t>0001132731</t>
+  </si>
+  <si>
+    <t>0001132715</t>
+  </si>
+  <si>
+    <t>0001132719</t>
+  </si>
+  <si>
+    <t>0001132732</t>
+  </si>
+  <si>
+    <t>0001132734</t>
+  </si>
+  <si>
+    <t>0001132720</t>
+  </si>
+  <si>
+    <t>0001132726</t>
+  </si>
+  <si>
+    <t>0001132736</t>
+  </si>
+  <si>
+    <t>0001132724</t>
+  </si>
+  <si>
+    <t>0001132728</t>
+  </si>
+  <si>
+    <t>05000000003669</t>
+  </si>
+  <si>
+    <t>4000007542</t>
+  </si>
+  <si>
+    <t>05000000003673</t>
+  </si>
+  <si>
+    <t>4000007549</t>
+  </si>
+  <si>
+    <t>05000000003677</t>
+  </si>
+  <si>
+    <t>4000007551</t>
+  </si>
+  <si>
+    <t>02000000003681</t>
+  </si>
+  <si>
+    <t>4000007548</t>
+  </si>
+  <si>
+    <t>02000000003685</t>
+  </si>
+  <si>
+    <t>4000007545</t>
+  </si>
+  <si>
+    <t>02000000003689</t>
+  </si>
+  <si>
+    <t>4000007547</t>
+  </si>
+  <si>
+    <t>80872364</t>
+  </si>
+  <si>
+    <t>17.04.2020</t>
+  </si>
+  <si>
+    <t>LOTE3833</t>
+  </si>
+  <si>
+    <t>20200417</t>
+  </si>
+  <si>
+    <t>20211208</t>
+  </si>
+  <si>
+    <t>3833</t>
+  </si>
+  <si>
+    <t>0000R00003833</t>
+  </si>
+  <si>
+    <t>20200217</t>
+  </si>
+  <si>
+    <t>3435415</t>
+  </si>
+  <si>
+    <t>1572;LOTE3833;20211208;DESC LOTE3833;LOTE3833;N;LOTE3833;;AR;;;;;;S;1;S;210;20181103;F;N;</t>
+  </si>
+  <si>
+    <t>05000000003833;FNET;FNET;05;ZRET;20200417;;1800000042;20200417;08:00;16:00;20000;Remito electrónico Test;;;1572;60;C/U;LOTE3833;;;;;0000-00003833;3833;20200417;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200417002C001CLIENTESAPNROOC032202004171572              20           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202004170002073900PEDIDO                                                                          1572              20       139                         05        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD1572  133198CLIENTESAPC00120200417NROOC1  20     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1572              20     816 0  011   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3435425 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3435435 </t>
+  </si>
+  <si>
+    <t>LOTE3837</t>
+  </si>
+  <si>
+    <t>3837</t>
+  </si>
+  <si>
+    <t>0000R00003837</t>
+  </si>
+  <si>
+    <t>3435457</t>
+  </si>
+  <si>
+    <t>1572;LOTE3837;20211208;DESC LOTE3837;LOTE3837;N;LOTE3837;;AR;;;;;;S;1;S;210;20181103;F;N;</t>
+  </si>
+  <si>
+    <t>05000000003837;FNET;FNET;05;ZRET;20200417;;1800000042;20200417;08:00;16:00;20000;Remito electrónico Test;;;1572;60;C/U;LOTE3837;;;;;0000-00003837;3837;20200417;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3435467 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3435477 </t>
+  </si>
+  <si>
+    <t>LOTE3841</t>
+  </si>
+  <si>
+    <t>3841</t>
+  </si>
+  <si>
+    <t>0000R00003841</t>
+  </si>
+  <si>
+    <t>3435499</t>
+  </si>
+  <si>
+    <t>1572;LOTE3841;20211208;DESC LOTE3841;LOTE3841;N;LOTE3841;;AR;;;;;;S;1;S;210;20181103;F;N;</t>
+  </si>
+  <si>
+    <t>05000000003841;FNET;FNET;05;ZRET;20200417;;1800000042;20200417;08:00;16:00;20000;Remito electrónico Test;;;1572;60;C/U;LOTE3841;;;;;0000-00003841;3841;20200417;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3435509 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3435519 </t>
+  </si>
+  <si>
+    <t>LOTE3845</t>
+  </si>
+  <si>
+    <t>3845</t>
+  </si>
+  <si>
+    <t>0000R00003845</t>
+  </si>
+  <si>
+    <t>3435541</t>
+  </si>
+  <si>
+    <t>9181;LOTE3845;20211208;DESC LOTE3845;LOTE3845;N;LOTE3845;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000003845;FNET;FNET;02;ZRET;20200417;;1800000122;20200417;08:00;16:00;20000;Remito electrónico Test;;;9181;66;C/U;LOTE3845;;;;;0000-00003845;3845;20200417;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200417002C001CLIENTESAPNROOC032202004179181              22           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202004170002073900PEDIDO                                                                          9181              22       139                         02        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD9181  133198CLIENTESAPC00120200417NROOC1  22     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    9181              22     816 0  011   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3435551 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3435561 </t>
+  </si>
+  <si>
+    <t>LOTE3849</t>
+  </si>
+  <si>
+    <t>3849</t>
+  </si>
+  <si>
+    <t>0000R00003849</t>
+  </si>
+  <si>
+    <t>3435583</t>
+  </si>
+  <si>
+    <t>9181;LOTE3849;20211208;DESC LOTE3849;LOTE3849;N;LOTE3849;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000003849;FNET;FNET;02;ZRET;20200417;;1800000122;20200417;08:00;16:00;20000;Remito electrónico Test;;;9181;66;C/U;LOTE3849;;;;;0000-00003849;3849;20200417;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3435593 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3435603 </t>
+  </si>
+  <si>
+    <t>LOTE3853</t>
+  </si>
+  <si>
+    <t>3853</t>
+  </si>
+  <si>
+    <t>0000R00003853</t>
+  </si>
+  <si>
+    <t>3435625</t>
+  </si>
+  <si>
+    <t>9181;LOTE3853;20211208;DESC LOTE3853;LOTE3853;N;LOTE3853;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000003853;FNET;FNET;02;ZRET;20200417;;1800000122;20200417;08:00;16:00;20000;Remito electrónico Test;;;9181;66;C/U;LOTE3853;;;;;0000-00003853;3853;20200417;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3435635 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3435645 </t>
+  </si>
+  <si>
+    <t>0001132959</t>
+  </si>
+  <si>
+    <t>0001132954</t>
+  </si>
+  <si>
+    <t>0001132956</t>
+  </si>
+  <si>
+    <t>0001132962</t>
+  </si>
+  <si>
+    <t>0001132968</t>
+  </si>
+  <si>
+    <t>0001132958</t>
+  </si>
+  <si>
+    <t>0001132966</t>
+  </si>
+  <si>
+    <t>0001132970</t>
+  </si>
+  <si>
+    <t>0001132983</t>
+  </si>
+  <si>
+    <t>0001132964</t>
+  </si>
+  <si>
+    <t>0001132973</t>
+  </si>
+  <si>
+    <t>0001132981</t>
+  </si>
+  <si>
+    <t>0001132967</t>
+  </si>
+  <si>
+    <t>0001132975</t>
+  </si>
+  <si>
+    <t>0001132978</t>
+  </si>
+  <si>
+    <t>0001132986</t>
+  </si>
+  <si>
+    <t>0001132972</t>
+  </si>
+  <si>
+    <t>0001132980</t>
+  </si>
+  <si>
+    <t>05000000003833</t>
+  </si>
+  <si>
+    <t>4000007624</t>
+  </si>
+  <si>
+    <t>05000000003837</t>
+  </si>
+  <si>
+    <t>4000007631</t>
+  </si>
+  <si>
+    <t>05000000003841</t>
+  </si>
+  <si>
+    <t>4000007633</t>
+  </si>
+  <si>
+    <t>02000000003845</t>
+  </si>
+  <si>
+    <t>4000007626</t>
+  </si>
+  <si>
+    <t>02000000003849</t>
+  </si>
+  <si>
+    <t>4000007628</t>
+  </si>
+  <si>
+    <t>02000000003853</t>
+  </si>
+  <si>
+    <t>4000007630</t>
   </si>
 </sst>
 </file>
@@ -1623,8 +3063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2E8823-6EAB-486E-9169-DE992862E70B}">
   <dimension ref="A1:BD7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AO2" sqref="AO2:AQ4"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1663,7 +3103,7 @@
     <col min="34" max="34" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
     <col min="35" max="35" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
     <col min="36" max="36" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" width="43.0" collapsed="true"/>
     <col min="38" max="38" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
     <col min="39" max="39" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
     <col min="40" max="40" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
@@ -1871,37 +3311,37 @@
         <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>299</v>
+        <v>797</v>
       </c>
       <c r="J2" t="s">
-        <v>300</v>
+        <v>798</v>
       </c>
       <c r="K2" t="s">
-        <v>301</v>
+        <v>799</v>
       </c>
       <c r="L2" t="s">
-        <v>302</v>
+        <v>800</v>
       </c>
       <c r="M2">
         <v>60</v>
       </c>
       <c r="N2" t="s">
-        <v>303</v>
+        <v>801</v>
       </c>
       <c r="O2" t="s">
         <v>3</v>
       </c>
       <c r="W2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="X2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="Y2" t="s">
-        <v>304</v>
+        <v>802</v>
       </c>
       <c r="Z2" t="s">
-        <v>305</v>
+        <v>803</v>
       </c>
       <c r="AD2">
         <v>20</v>
@@ -1910,66 +3350,66 @@
         <v>2010000</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>306</v>
+        <v>804</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>307</v>
+        <v>805</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>308</v>
+        <v>806</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>309</v>
+        <v>807</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>310</v>
+        <v>808</v>
       </c>
       <c r="AN2" s="2"/>
       <c r="AO2" s="3" t="s">
-        <v>356</v>
+        <v>854</v>
       </c>
       <c r="AP2" s="3" t="s">
-        <v>357</v>
+        <v>855</v>
       </c>
       <c r="AQ2" s="4" t="s">
-        <v>358</v>
+        <v>856</v>
       </c>
       <c r="AR2" t="s">
-        <v>386</v>
+        <v>795</v>
       </c>
       <c r="AS2" s="2"/>
       <c r="AT2" s="2" t="s">
-        <v>375</v>
+        <v>873</v>
       </c>
       <c r="AU2" t="s">
-        <v>298</v>
+        <v>796</v>
       </c>
       <c r="AV2" s="5" t="s">
-        <v>160</v>
+        <v>67</v>
       </c>
       <c r="AW2" s="4" t="s">
-        <v>374</v>
+        <v>872</v>
       </c>
       <c r="AX2" t="s">
-        <v>387</v>
+        <v>263</v>
       </c>
       <c r="AY2" t="s">
-        <v>388</v>
+        <v>264</v>
       </c>
       <c r="AZ2" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="BA2" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="BB2" t="s">
-        <v>311</v>
+        <v>809</v>
       </c>
       <c r="BC2" t="s">
-        <v>312</v>
+        <v>810</v>
       </c>
       <c r="BD2" t="s">
-        <v>305</v>
+        <v>803</v>
       </c>
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.25">
@@ -1992,37 +3432,37 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>313</v>
+        <v>811</v>
       </c>
       <c r="J3" t="s">
-        <v>300</v>
+        <v>798</v>
       </c>
       <c r="K3" t="s">
-        <v>301</v>
+        <v>799</v>
       </c>
       <c r="L3" t="s">
-        <v>314</v>
+        <v>812</v>
       </c>
       <c r="M3">
         <v>60</v>
       </c>
       <c r="N3" t="s">
-        <v>315</v>
+        <v>813</v>
       </c>
       <c r="O3" t="s">
         <v>3</v>
       </c>
       <c r="W3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="Y3" t="s">
-        <v>304</v>
+        <v>802</v>
       </c>
       <c r="Z3" t="s">
-        <v>316</v>
+        <v>814</v>
       </c>
       <c r="AD3">
         <v>20</v>
@@ -2031,66 +3471,66 @@
         <v>2010000</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>317</v>
+        <v>815</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>318</v>
+        <v>816</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>308</v>
+        <v>806</v>
       </c>
       <c r="AL3" s="2" t="s">
-        <v>309</v>
+        <v>807</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>310</v>
+        <v>808</v>
       </c>
       <c r="AN3" s="2"/>
       <c r="AO3" s="3" t="s">
-        <v>359</v>
+        <v>857</v>
       </c>
       <c r="AP3" s="3" t="s">
-        <v>360</v>
+        <v>858</v>
       </c>
       <c r="AQ3" s="4" t="s">
-        <v>361</v>
+        <v>859</v>
       </c>
       <c r="AR3" t="s">
-        <v>389</v>
+        <v>265</v>
       </c>
       <c r="AS3" s="2"/>
       <c r="AT3" s="2" t="s">
-        <v>377</v>
+        <v>875</v>
       </c>
       <c r="AU3" t="s">
-        <v>298</v>
+        <v>796</v>
       </c>
       <c r="AV3" s="5" t="s">
-        <v>160</v>
+        <v>67</v>
       </c>
       <c r="AW3" s="4" t="s">
-        <v>376</v>
+        <v>874</v>
       </c>
       <c r="AX3" t="s">
-        <v>390</v>
+        <v>72</v>
       </c>
       <c r="AY3" t="s">
-        <v>391</v>
+        <v>73</v>
       </c>
       <c r="AZ3" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="BA3" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="BB3" t="s">
-        <v>319</v>
+        <v>817</v>
       </c>
       <c r="BC3" t="s">
-        <v>320</v>
+        <v>818</v>
       </c>
       <c r="BD3" t="s">
-        <v>316</v>
+        <v>814</v>
       </c>
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.25">
@@ -2113,37 +3553,37 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>321</v>
+        <v>819</v>
       </c>
       <c r="J4" t="s">
-        <v>300</v>
+        <v>798</v>
       </c>
       <c r="K4" t="s">
-        <v>301</v>
+        <v>799</v>
       </c>
       <c r="L4" t="s">
-        <v>322</v>
+        <v>820</v>
       </c>
       <c r="M4">
         <v>60</v>
       </c>
       <c r="N4" t="s">
-        <v>323</v>
+        <v>821</v>
       </c>
       <c r="O4" t="s">
         <v>3</v>
       </c>
       <c r="W4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="X4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="Y4" t="s">
-        <v>304</v>
+        <v>802</v>
       </c>
       <c r="Z4" t="s">
-        <v>324</v>
+        <v>822</v>
       </c>
       <c r="AD4">
         <v>20</v>
@@ -2152,66 +3592,66 @@
         <v>2010000</v>
       </c>
       <c r="AI4" s="2" t="s">
-        <v>325</v>
+        <v>823</v>
       </c>
       <c r="AJ4" s="2" t="s">
-        <v>326</v>
+        <v>824</v>
       </c>
       <c r="AK4" s="2" t="s">
-        <v>308</v>
+        <v>806</v>
       </c>
       <c r="AL4" s="2" t="s">
-        <v>309</v>
+        <v>807</v>
       </c>
       <c r="AM4" s="2" t="s">
-        <v>310</v>
+        <v>808</v>
       </c>
       <c r="AN4" s="2"/>
       <c r="AO4" s="3" t="s">
-        <v>362</v>
+        <v>860</v>
       </c>
       <c r="AP4" s="3" t="s">
-        <v>363</v>
+        <v>861</v>
       </c>
       <c r="AQ4" s="4" t="s">
-        <v>364</v>
+        <v>862</v>
       </c>
       <c r="AR4" t="s">
-        <v>392</v>
+        <v>74</v>
       </c>
       <c r="AS4" s="2"/>
       <c r="AT4" s="2" t="s">
-        <v>379</v>
+        <v>877</v>
       </c>
       <c r="AU4" t="s">
-        <v>298</v>
+        <v>796</v>
       </c>
       <c r="AV4" s="5" t="s">
-        <v>160</v>
+        <v>67</v>
       </c>
       <c r="AW4" s="4" t="s">
-        <v>378</v>
+        <v>876</v>
       </c>
       <c r="AX4" t="s">
-        <v>393</v>
+        <v>75</v>
       </c>
       <c r="AY4" t="s">
-        <v>394</v>
+        <v>76</v>
       </c>
       <c r="AZ4" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="BA4" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="BB4" t="s">
-        <v>327</v>
+        <v>825</v>
       </c>
       <c r="BC4" t="s">
-        <v>328</v>
+        <v>826</v>
       </c>
       <c r="BD4" t="s">
-        <v>324</v>
+        <v>822</v>
       </c>
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.25">
@@ -2234,37 +3674,37 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>329</v>
+        <v>827</v>
       </c>
       <c r="J5" t="s">
-        <v>300</v>
+        <v>798</v>
       </c>
       <c r="K5" t="s">
-        <v>301</v>
+        <v>799</v>
       </c>
       <c r="L5" t="s">
-        <v>330</v>
+        <v>828</v>
       </c>
       <c r="M5">
         <v>66</v>
       </c>
       <c r="N5" t="s">
-        <v>331</v>
+        <v>829</v>
       </c>
       <c r="O5" t="s">
         <v>3</v>
       </c>
       <c r="W5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="X5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="Y5" t="s">
-        <v>304</v>
+        <v>802</v>
       </c>
       <c r="Z5" t="s">
-        <v>332</v>
+        <v>830</v>
       </c>
       <c r="AD5">
         <v>22</v>
@@ -2273,66 +3713,66 @@
         <v>2010000</v>
       </c>
       <c r="AI5" s="2" t="s">
-        <v>333</v>
+        <v>831</v>
       </c>
       <c r="AJ5" s="2" t="s">
-        <v>334</v>
+        <v>832</v>
       </c>
       <c r="AK5" s="2" t="s">
-        <v>335</v>
+        <v>833</v>
       </c>
       <c r="AL5" s="2" t="s">
-        <v>336</v>
+        <v>834</v>
       </c>
       <c r="AM5" s="2" t="s">
-        <v>337</v>
+        <v>835</v>
       </c>
       <c r="AN5" s="2"/>
       <c r="AO5" s="3" t="s">
-        <v>365</v>
+        <v>863</v>
       </c>
       <c r="AP5" s="3" t="s">
-        <v>366</v>
+        <v>864</v>
       </c>
       <c r="AQ5" s="4" t="s">
-        <v>367</v>
+        <v>865</v>
       </c>
       <c r="AR5" t="s">
-        <v>395</v>
+        <v>77</v>
       </c>
       <c r="AS5" s="2"/>
       <c r="AT5" s="2" t="s">
-        <v>381</v>
+        <v>879</v>
       </c>
       <c r="AU5" t="s">
-        <v>298</v>
+        <v>796</v>
       </c>
       <c r="AV5" s="5" t="s">
-        <v>160</v>
+        <v>67</v>
       </c>
       <c r="AW5" s="4" t="s">
-        <v>380</v>
+        <v>878</v>
       </c>
       <c r="AX5" t="s">
-        <v>396</v>
+        <v>78</v>
       </c>
       <c r="AY5" t="s">
-        <v>397</v>
+        <v>79</v>
       </c>
       <c r="AZ5" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="BA5" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="BB5" t="s">
-        <v>338</v>
+        <v>836</v>
       </c>
       <c r="BC5" t="s">
-        <v>339</v>
+        <v>837</v>
       </c>
       <c r="BD5" t="s">
-        <v>332</v>
+        <v>830</v>
       </c>
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.25">
@@ -2355,37 +3795,37 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>340</v>
+        <v>838</v>
       </c>
       <c r="J6" t="s">
-        <v>300</v>
+        <v>798</v>
       </c>
       <c r="K6" t="s">
-        <v>301</v>
+        <v>799</v>
       </c>
       <c r="L6" t="s">
-        <v>341</v>
+        <v>839</v>
       </c>
       <c r="M6">
         <v>66</v>
       </c>
       <c r="N6" t="s">
-        <v>342</v>
+        <v>840</v>
       </c>
       <c r="O6" t="s">
         <v>3</v>
       </c>
       <c r="W6" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="X6" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="Y6" t="s">
-        <v>304</v>
+        <v>802</v>
       </c>
       <c r="Z6" t="s">
-        <v>343</v>
+        <v>841</v>
       </c>
       <c r="AD6">
         <v>22</v>
@@ -2394,66 +3834,66 @@
         <v>2010000</v>
       </c>
       <c r="AI6" s="2" t="s">
-        <v>344</v>
+        <v>842</v>
       </c>
       <c r="AJ6" s="2" t="s">
-        <v>345</v>
+        <v>843</v>
       </c>
       <c r="AK6" s="2" t="s">
-        <v>335</v>
+        <v>833</v>
       </c>
       <c r="AL6" s="2" t="s">
-        <v>336</v>
+        <v>834</v>
       </c>
       <c r="AM6" s="2" t="s">
-        <v>337</v>
+        <v>835</v>
       </c>
       <c r="AN6" s="2"/>
       <c r="AO6" s="3" t="s">
-        <v>368</v>
+        <v>866</v>
       </c>
       <c r="AP6" s="3" t="s">
-        <v>369</v>
+        <v>867</v>
       </c>
       <c r="AQ6" s="4" t="s">
-        <v>370</v>
+        <v>868</v>
       </c>
       <c r="AR6" t="s">
-        <v>398</v>
+        <v>80</v>
       </c>
       <c r="AS6" s="2"/>
       <c r="AT6" s="2" t="s">
-        <v>383</v>
+        <v>881</v>
       </c>
       <c r="AU6" t="s">
-        <v>298</v>
+        <v>796</v>
       </c>
       <c r="AV6" s="5" t="s">
-        <v>160</v>
+        <v>67</v>
       </c>
       <c r="AW6" s="4" t="s">
-        <v>382</v>
+        <v>880</v>
       </c>
       <c r="AX6" t="s">
-        <v>399</v>
+        <v>81</v>
       </c>
       <c r="AY6" t="s">
-        <v>400</v>
+        <v>82</v>
       </c>
       <c r="AZ6" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="BA6" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="BB6" t="s">
-        <v>346</v>
+        <v>844</v>
       </c>
       <c r="BC6" t="s">
-        <v>347</v>
+        <v>845</v>
       </c>
       <c r="BD6" t="s">
-        <v>343</v>
+        <v>841</v>
       </c>
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.25">
@@ -2476,37 +3916,37 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>348</v>
+        <v>846</v>
       </c>
       <c r="J7" t="s">
-        <v>300</v>
+        <v>798</v>
       </c>
       <c r="K7" t="s">
-        <v>301</v>
+        <v>799</v>
       </c>
       <c r="L7" t="s">
-        <v>349</v>
+        <v>847</v>
       </c>
       <c r="M7">
         <v>66</v>
       </c>
       <c r="N7" t="s">
-        <v>350</v>
+        <v>848</v>
       </c>
       <c r="O7" t="s">
         <v>3</v>
       </c>
       <c r="W7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="X7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="Y7" t="s">
-        <v>304</v>
+        <v>802</v>
       </c>
       <c r="Z7" t="s">
-        <v>351</v>
+        <v>849</v>
       </c>
       <c r="AD7">
         <v>22</v>
@@ -2515,66 +3955,66 @@
         <v>2010000</v>
       </c>
       <c r="AI7" s="2" t="s">
-        <v>352</v>
+        <v>850</v>
       </c>
       <c r="AJ7" s="2" t="s">
-        <v>353</v>
+        <v>851</v>
       </c>
       <c r="AK7" s="2" t="s">
-        <v>335</v>
+        <v>833</v>
       </c>
       <c r="AL7" s="2" t="s">
-        <v>336</v>
+        <v>834</v>
       </c>
       <c r="AM7" s="2" t="s">
-        <v>337</v>
+        <v>835</v>
       </c>
       <c r="AN7" s="2"/>
       <c r="AO7" s="3" t="s">
-        <v>371</v>
+        <v>869</v>
       </c>
       <c r="AP7" s="3" t="s">
-        <v>372</v>
+        <v>870</v>
       </c>
       <c r="AQ7" s="4" t="s">
-        <v>373</v>
+        <v>871</v>
       </c>
       <c r="AR7" t="s">
-        <v>401</v>
+        <v>83</v>
       </c>
       <c r="AS7" s="2"/>
       <c r="AT7" s="2" t="s">
-        <v>385</v>
+        <v>883</v>
       </c>
       <c r="AU7" t="s">
-        <v>298</v>
+        <v>796</v>
       </c>
       <c r="AV7" s="5" t="s">
-        <v>160</v>
+        <v>66</v>
       </c>
       <c r="AW7" s="4" t="s">
-        <v>384</v>
+        <v>882</v>
       </c>
       <c r="AX7" t="s">
-        <v>402</v>
+        <v>84</v>
       </c>
       <c r="AY7" t="s">
-        <v>403</v>
+        <v>85</v>
       </c>
       <c r="AZ7" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="BA7" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="BB7" t="s">
-        <v>354</v>
+        <v>852</v>
       </c>
       <c r="BC7" t="s">
-        <v>355</v>
+        <v>853</v>
       </c>
       <c r="BD7" t="s">
-        <v>351</v>
+        <v>849</v>
       </c>
     </row>
   </sheetData>
